--- a/API.Consolidation.xlsx
+++ b/API.Consolidation.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25616"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="1270" documentId="11_2F206C6948C74EE3E979BAFA89738C9863138395" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B9A39B5-50F5-485C-98C0-2C3FAB5060AE}"/>
+  <xr:revisionPtr revIDLastSave="1427" documentId="11_2F206C6948C74EE3E979BAFA89738C9863138395" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7EB56137-1D0B-4FEF-8FEC-225466886990}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original Design" sheetId="1" r:id="rId1"/>
     <sheet name="Consolidated Design" sheetId="2" r:id="rId2"/>
     <sheet name="ID (DOKU)" sheetId="3" r:id="rId3"/>
+    <sheet name="VN (Payoo + Viettel) WIP" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="320">
   <si>
     <t>Entity / Endpoints</t>
   </si>
@@ -491,17 +492,17 @@
   </si>
   <si>
     <t>{
-  "entity": "list",
-  "total_pages": 3,
-  "total_counts": 6,
-  "counts": 2,
-  "payload": [
-    {
-      "id": "payment-xxx",
-      "entity": "payment", ...
-    },
-    {...}
-  ]
+    "entity": "list",
+    "total_pages": 3,
+    "total_counts": 6,
+    "counts": 2,
+    "payload": [
+        {
+            "id": "payment-xxx",
+            "entity": "payment", ...
+        },
+        {...}
+    ]
 }</t>
   </si>
   <si>
@@ -528,24 +529,24 @@
   </si>
   <si>
     <t>{
-	"id": "event-xxxx",
-	"entity": "event",
-	"event": "payment.created",
-	"created": 1660584031,
-	"contains": [
-		"payment",
-		"order"
-	],
-	"payload": {
-		"payment": {
-			"id": "payment-xxx",
-			"entity": "payment", ...
-		},
-		"order": {
-			"id": "order-xxx",
-			"entity": "order", ...
-		}
-	}
+    "id": "event-xxxx",
+    "entity": "event",
+    "event": "payment.created",
+    "created": 1660584031,
+    "contains": [
+        "payment",
+        "order"
+    ],
+    "payload": {
+        "payment": {
+            "id": "payment-xxx",
+            "entity": "payment", ...
+        },
+        "order": {
+            "id": "order-xxx",
+            "entity": "order", ...
+        }
+    }
 }</t>
   </si>
   <si>
@@ -685,10 +686,40 @@
     <t>Different Set of Statuses across different countries</t>
   </si>
   <si>
+    <t>ITEMS</t>
+  </si>
+  <si>
+    <t>No endpoint for this entity yet</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>reference</t>
+  </si>
+  <si>
+    <t>unit_amount</t>
+  </si>
+  <si>
+    <t>no_of_unit</t>
+  </si>
+  <si>
+    <t>tax</t>
+  </si>
+  <si>
+    <t>Not all countries need tax</t>
+  </si>
+  <si>
+    <t>total_unit_amount</t>
+  </si>
+  <si>
     <t>PAYMENTS Entity</t>
   </si>
   <si>
     <t>Create a PAYMENT</t>
+  </si>
+  <si>
+    <t>Respond a Direct VA PAYMENT</t>
   </si>
   <si>
     <t>Create a Payment</t>
@@ -701,37 +732,38 @@
         <rFont val="Calibri"/>
       </rPr>
       <t xml:space="preserve">{
-	"amount": 50000,
-	"currency": "IDR",
-	"locale": "ID",
-	"description": "demo",
-	"payment_solution": {
-		"doku_hosted_payment": {
-			"url_setting": {
-				"notification": "https://xxxxxxxxx"
-			},
-			"page_setting": {
-				"payment_option": "15"
-			},
-			"customer": {
-				"first_name": "xxxxxx",
-				"last_name": "xxxxxx",
-				"email": "qwerty"
-			},
-			"payment_method": {
-				</t>
+    "amount": 50000,
+    "currency": "IDR",
+    "locale": "ID",
+    "description": "demo",
+    "payment_solution": {
+        "doku_hosted_payment": {
+            "psp_payment_reference": "xxxxxxxxxxxx",
+            "url_setting": {
+                "notification": "https://xxxxxxxxx"
+            },
+            "page_setting": {
+                "payment_option": "15"
+            },
+            "customer": {
+                "first_name": "xxxxxx",
+                "last_name": "xxxxxx",
+                "email": "qwerty"
+            },
+            "payment_method": {
+                </t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF00B0F0"/>
+        <color rgb="FF4472C4"/>
         <rFont val="Calibri"/>
       </rPr>
       <t xml:space="preserve">"card": {
-					"save_card": {
-						"token": "xxxxxxxxxxx"
-					}
-				},
+                    "save_card": {
+                        "token": "xxxxxxxxxxx"
+                    }
+                },
 </t>
     </r>
     <r>
@@ -740,7 +772,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t xml:space="preserve">				</t>
+      <t xml:space="preserve">                </t>
     </r>
     <r>
       <rPr>
@@ -749,8 +781,8 @@
         <rFont val="Calibri"/>
       </rPr>
       <t xml:space="preserve">"installment": {
-					"plan_id": "xxxxxxxx"
-				}
+                    "plan_id": "xxxxxxxx"
+                }
 </t>
     </r>
     <r>
@@ -759,20 +791,398 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t xml:space="preserve">			}
-		}
-	},
-	"items": [
-		{
-			"product_name": "Product Item 1",
-			"product_id": "A",
-			"unit_amount": 900,
-			"unit": 1,
-			"tax": 100,
-			"sub_amount": 1000
-		}
-	],
-	</t>
+      <t xml:space="preserve">            }
+        }
+    },
+    "items": [
+        {
+            "name": "Product Item 1",
+            "reference": "123456",
+            "unit_amount": 900,
+            "no_of_unit": 2,
+            "tax": null,
+            "total_unit_amount": 1800
+        }
+    ],
+    "metadata": {
+        "merchant_payment_reference": "payment-12345678"
+    }
+}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">{
+    "amount": 50000,
+    "currency": "IDR",
+    "locale": "ID",
+    "description": "demo",
+    "payment_solution": {
+        "doku_direct_virtual_account_payment": {
+            "psp_payment_reference": "xxxxxxxxxxxx",
+            "response_code": "0000",
+            "payment_code": "xxxxxxxxxxxxx",
+            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">"open_amount_scheme": {
+                "min_amount": 1000,
+                "max_amount": 5000
+            },
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">            "url_setting": {
+                "notification": "https://xxxxxxxxx"
+            },
+            "customer": {
+                "first_name": "xxxxxx",
+                "last_name": "xxxxxx",
+                "email": "qwerty"
+            }
+        }
+    },
+    "items": [
+        {
+            "name": "Product Item 1",
+            "reference": "123456",
+            "unit_amount": 900,
+            "no_of_unit": 2,
+            "tax": null,
+            "total_unit_amount": 1800
+        }
+    ],
+    "metadata": {
+        "merchant_payment_reference": "payment-12345678"
+    }
+}</t>
+    </r>
+  </si>
+  <si>
+    <t>Retrieve a Payment</t>
+  </si>
+  <si>
+    <t>POST /payments/{id}</t>
+  </si>
+  <si>
+    <t>Update a Payment</t>
+  </si>
+  <si>
+    <t>List all Payments for an Order</t>
+  </si>
+  <si>
+    <t>Cancel a Payment (check existing logic)</t>
+  </si>
+  <si>
+    <t>NEW Fields</t>
+  </si>
+  <si>
+    <t>OLD Fields</t>
+  </si>
+  <si>
+    <t>System-generated UUID v4, e.g: payment-a9ed0f7e-2e4f-42b8-8eda-c8029ff020b3</t>
+  </si>
+  <si>
+    <t>always "payment"</t>
+  </si>
+  <si>
+    <t>UNIX time generated by DCMS</t>
+  </si>
+  <si>
+    <t>DOKU: AMOUNT</t>
+  </si>
+  <si>
+    <t>Conversion needed</t>
+  </si>
+  <si>
+    <t>e.g. "IDR"</t>
+  </si>
+  <si>
+    <t>DOKU: CURRENCY</t>
+  </si>
+  <si>
+    <t>Conversion needed, Code to Number</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>DOKU: RESULTMSG</t>
+  </si>
+  <si>
+    <t>• created &gt; DCMS
+• captured &gt; SUCCESS
+• failed &gt; FAILED
+• cancelled &gt; DCMS logic
+• refunded &gt; DCMS logic</t>
+  </si>
+  <si>
+    <t>save in DCMS</t>
+  </si>
+  <si>
+    <t>order_id</t>
+  </si>
+  <si>
+    <t>System-generated UUID v4, e.g: order-45d1c481-0bc5-45a1-8a1a-05f77222aef6</t>
+  </si>
+  <si>
+    <t>subscription_id</t>
+  </si>
+  <si>
+    <t>always "null"</t>
+  </si>
+  <si>
+    <t>code_id</t>
+  </si>
+  <si>
+    <t>[items]</t>
+  </si>
+  <si>
+    <t>{description}</t>
+  </si>
+  <si>
+    <t>• name &gt; orderName
+• reference &gt; save at DCMS
+• unit_amount &gt; unitAmt
+• no_of_unit &gt; unit
+• tax &gt; "null" for this country
+• total_unit_amount &gt; subAmt</t>
+  </si>
+  <si>
+    <t>{payment_solution}</t>
+  </si>
+  <si>
+    <t>•{doku_hosted_payment}</t>
+  </si>
+  <si>
+    <t>••psp_payment_reference</t>
+  </si>
+  <si>
+    <t>Merchant-assigned</t>
+  </si>
+  <si>
+    <t>DOKU: TRANSIDMERCHANT</t>
+  </si>
+  <si>
+    <t>••{access_method}</t>
+  </si>
+  <si>
+    <t>•••form_post</t>
+  </si>
+  <si>
+    <t>Gerenated by DCMS</t>
+  </si>
+  <si>
+    <t>••{url_setting}</t>
+  </si>
+  <si>
+    <t>•••notification</t>
+  </si>
+  <si>
+    <t>Relay by DCMS</t>
+  </si>
+  <si>
+    <t>••{page_setting}</t>
+  </si>
+  <si>
+    <t>•••payment_option</t>
+  </si>
+  <si>
+    <t>DOKU: PAYMENTCHANNEL</t>
+  </si>
+  <si>
+    <t>••{customer}</t>
+  </si>
+  <si>
+    <t>•••first_name</t>
+  </si>
+  <si>
+    <t>combine with last_name</t>
+  </si>
+  <si>
+    <t>DOKU: NAME</t>
+  </si>
+  <si>
+    <t>•••last_name</t>
+  </si>
+  <si>
+    <t>•••email</t>
+  </si>
+  <si>
+    <t>DOKU: EMAIL</t>
+  </si>
+  <si>
+    <t>••{payment_method}</t>
+  </si>
+  <si>
+    <t>need to check logic: check PAYMENTCHANNEL?</t>
+  </si>
+  <si>
+    <t>•••{card}</t>
+  </si>
+  <si>
+    <t>••••name</t>
+  </si>
+  <si>
+    <t>DOKU: CHNAME</t>
+  </si>
+  <si>
+    <t>••••brand</t>
+  </si>
+  <si>
+    <t>DOKU: BRAND</t>
+  </si>
+  <si>
+    <t>••••issuer</t>
+  </si>
+  <si>
+    <t>DOKU: BANK</t>
+  </si>
+  <si>
+    <t>••••authorization_code</t>
+  </si>
+  <si>
+    <t>DOKU: APPROVALCODE</t>
+  </si>
+  <si>
+    <t>••••mcn</t>
+  </si>
+  <si>
+    <t>DOKU: MCN</t>
+  </si>
+  <si>
+    <t>••••cvv_result</t>
+  </si>
+  <si>
+    <t>DOKU: THREESECURESTATUS</t>
+  </si>
+  <si>
+    <t>• matched &gt; TRUE
+• not_matched &gt; FALSE</t>
+  </si>
+  <si>
+    <t>••••{dcc}</t>
+  </si>
+  <si>
+    <t>••••{save_card}</t>
+  </si>
+  <si>
+    <t>optional</t>
+  </si>
+  <si>
+    <t>•••••token</t>
+  </si>
+  <si>
+    <t>mapped to "customerId"</t>
+  </si>
+  <si>
+    <t>•••{installment}</t>
+  </si>
+  <si>
+    <t>optional, can coexist with {card}</t>
+  </si>
+  <si>
+    <t>••••plan_id</t>
+  </si>
+  <si>
+    <t>mapped to "plan_id"</t>
+  </si>
+  <si>
+    <t>•••{wallet}</t>
+  </si>
+  <si>
+    <t>••••wallet_id</t>
+  </si>
+  <si>
+    <t>mapped to "wallet_id"</t>
+  </si>
+  <si>
+    <t>•••{virtual_account}</t>
+  </si>
+  <si>
+    <t>••••payment_code</t>
+  </si>
+  <si>
+    <t>DOKU: PAYMENTCODE</t>
+  </si>
+  <si>
+    <t>•••{internet_banking}</t>
+  </si>
+  <si>
+    <t>•{doku_direct_virtual_account_payment}</t>
+  </si>
+  <si>
+    <t>••payment_code</t>
+  </si>
+  <si>
+    <t>payment_code</t>
+  </si>
+  <si>
+    <t>••response_code</t>
+  </si>
+  <si>
+    <t>txnResponseCode</t>
+  </si>
+  <si>
+    <t>••{open_amount_scheme}</t>
+  </si>
+  <si>
+    <t>•••min_amount</t>
+  </si>
+  <si>
+    <t>minAmt</t>
+  </si>
+  <si>
+    <t>•••max_amount</t>
+  </si>
+  <si>
+    <t>maxAmt</t>
+  </si>
+  <si>
+    <t>{metadata}</t>
+  </si>
+  <si>
+    <t>REFUNDS Entity</t>
+  </si>
+  <si>
+    <t>Create a REFUND</t>
+  </si>
+  <si>
+    <t>POST /payments/{id}/refunds</t>
+  </si>
+  <si>
+    <t>Create a Refund for a Payment</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">{
+    "amount": 50000,
+    "description": "demo",
+    "reason": "refund reason",
+    </t>
     </r>
     <r>
       <rPr>
@@ -781,8 +1191,8 @@
         <rFont val="Calibri"/>
       </rPr>
       <t xml:space="preserve">"metadata": {
-	  "merchant_payment_reference": "payment-12345678"
-	}
+        "merchant_refund_reference": "refund-12345678"
+    }
 </t>
     </r>
     <r>
@@ -795,252 +1205,47 @@
     </r>
   </si>
   <si>
-    <t>Retrieve a Payment</t>
-  </si>
-  <si>
-    <t>POST /payments/{id}</t>
-  </si>
-  <si>
-    <t>Update a Payment</t>
-  </si>
-  <si>
-    <t>List all Payments for an Order</t>
-  </si>
-  <si>
-    <t>Cancel a Payment (check existing logic)</t>
-  </si>
-  <si>
-    <t>HSBC Fields</t>
-  </si>
-  <si>
-    <t>DOKU Fields</t>
-  </si>
-  <si>
-    <t>System-generated UUID v4, e.g: payment-a9ed0f7e-2e4f-42b8-8eda-c8029ff020b3</t>
-  </si>
-  <si>
-    <t>always "payment"</t>
-  </si>
-  <si>
-    <t>UNIX time generated by DCMS</t>
-  </si>
-  <si>
-    <t>AMOUNT</t>
-  </si>
-  <si>
-    <t>Conversion needed</t>
-  </si>
-  <si>
-    <t>e.g. "IDR"</t>
-  </si>
-  <si>
-    <t>CURRENCY</t>
-  </si>
-  <si>
-    <t>Conversion needed, Code to Number</t>
-  </si>
-  <si>
-    <t>location</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>RESULTMSG</t>
-  </si>
-  <si>
-    <t>• created &gt; DCMS
-• captured &gt; SUCCESS
-• failed &gt; FAILED
-• cancelled &gt; DCMS logic
-• refunded &gt; DCMS logic</t>
-  </si>
-  <si>
-    <t>save in DCMS</t>
-  </si>
-  <si>
-    <t>order_id</t>
-  </si>
-  <si>
-    <t>System-generated UUID v4, e.g: order-45d1c481-0bc5-45a1-8a1a-05f77222aef6</t>
-  </si>
-  <si>
-    <t>subscription_id</t>
-  </si>
-  <si>
-    <t>always "null"</t>
-  </si>
-  <si>
-    <t>code_id</t>
-  </si>
-  <si>
-    <t>[payment_solution]</t>
-  </si>
-  <si>
-    <t>•[doku_hosted_payment]</t>
-  </si>
-  <si>
-    <t>••psp_payment_reference</t>
-  </si>
-  <si>
-    <t>TRANSIDMERCHANT</t>
-  </si>
-  <si>
-    <t>••[access_method]</t>
-  </si>
-  <si>
-    <t>•••form_post</t>
-  </si>
-  <si>
-    <t>Gerenated by DCMS</t>
-  </si>
-  <si>
-    <t>••[url_setting]</t>
-  </si>
-  <si>
-    <t>•••notification</t>
-  </si>
-  <si>
-    <t>Relay by DCMS</t>
-  </si>
-  <si>
-    <t>••[page_setting]</t>
-  </si>
-  <si>
-    <t>•••payment_option</t>
-  </si>
-  <si>
-    <t>PAYMENTCHANNEL</t>
-  </si>
-  <si>
-    <t>••[customer]</t>
-  </si>
-  <si>
-    <t>•••first_name</t>
-  </si>
-  <si>
-    <t>combine with last_name</t>
-  </si>
-  <si>
-    <t>NAME</t>
-  </si>
-  <si>
-    <t>•••last_name</t>
-  </si>
-  <si>
-    <t>•••email</t>
-  </si>
-  <si>
-    <t>EMAIL</t>
-  </si>
-  <si>
-    <t>••[payment_method]</t>
-  </si>
-  <si>
-    <t>need to check logic: check PAYMENTCHANNEL?</t>
-  </si>
-  <si>
-    <t>•••[card]</t>
-  </si>
-  <si>
-    <t>••••name</t>
-  </si>
-  <si>
-    <t>CHNAME</t>
-  </si>
-  <si>
-    <t>••••brand</t>
-  </si>
-  <si>
-    <t>BRAND</t>
-  </si>
-  <si>
-    <t>••••issuer</t>
-  </si>
-  <si>
-    <t>BANK</t>
-  </si>
-  <si>
-    <t>••••authorization_code</t>
-  </si>
-  <si>
-    <t>APPROVALCODE</t>
-  </si>
-  <si>
-    <t>••••mcn</t>
-  </si>
-  <si>
-    <t>MCN</t>
-  </si>
-  <si>
-    <t>••••cvv_result</t>
-  </si>
-  <si>
-    <t>THREESECURESTATUS</t>
-  </si>
-  <si>
-    <t>• matched &gt; TRUE
-• not_matched &gt; FALSE</t>
-  </si>
-  <si>
-    <t>••••[dcc]</t>
-  </si>
-  <si>
-    <t>••••[save_card]</t>
-  </si>
-  <si>
-    <t>•••••token</t>
-  </si>
-  <si>
-    <t>mapped to "customerId"</t>
-  </si>
-  <si>
-    <t>•••[installment]</t>
-  </si>
-  <si>
-    <t>can coexist with [card]</t>
-  </si>
-  <si>
-    <t>••••plan_id</t>
-  </si>
-  <si>
-    <t>mapped to "plan_id"</t>
-  </si>
-  <si>
-    <t>•••[wallet]</t>
-  </si>
-  <si>
-    <t>••••wallet_id</t>
-  </si>
-  <si>
-    <t>mapped to "wallet_id"</t>
-  </si>
-  <si>
-    <t>•••[virtual_account]</t>
-  </si>
-  <si>
-    <t>••••payment_code</t>
-  </si>
-  <si>
-    <t>PAYMENTCODE</t>
-  </si>
-  <si>
-    <t>•••[internet_banking]</t>
-  </si>
-  <si>
-    <t>[metadata]</t>
-  </si>
-  <si>
-    <t>REFUNDS Entity</t>
-  </si>
-  <si>
-    <t>Create a REFUND</t>
-  </si>
-  <si>
-    <t>POST /payments/{id}/refunds</t>
-  </si>
-  <si>
-    <t>Create a Refund for a Payment</t>
+    <t>List all Refunds for a Payment</t>
+  </si>
+  <si>
+    <t>Retrieve a Refund</t>
+  </si>
+  <si>
+    <t>POST /refunds/{id}</t>
+  </si>
+  <si>
+    <t>Update a Refund</t>
+  </si>
+  <si>
+    <t>System-generated UUID v4, e.g: refund-69ace59f-d3dd-40c4-9ce3-919c4a01b220</t>
+  </si>
+  <si>
+    <t>always "refund"</t>
+  </si>
+  <si>
+    <t>ID, derived from PAYMENT</t>
+  </si>
+  <si>
+    <t>• succeeded &gt; SUCCESS
+• falied &gt; FAILED</t>
+  </si>
+  <si>
+    <t>reason</t>
+  </si>
+  <si>
+    <t>DOKU: REASON</t>
+  </si>
+  <si>
+    <t>psp_refund_reference</t>
+  </si>
+  <si>
+    <t>DOKU: REFIDMERCHANT</t>
+  </si>
+  <si>
+    <t>Generated by DCMS</t>
+  </si>
+  <si>
+    <t>payment_id</t>
   </si>
   <si>
     <r>
@@ -1050,20 +1255,38 @@
         <rFont val="Calibri"/>
       </rPr>
       <t xml:space="preserve">{
-	"amount": 50000,
-	"description": "demo",
-	"reason": "refund reason",
-	</t>
+    "amount": 50000,
+    "currency": "IDR",
+    "locale": "ID",
+    "description": "demo",
+    "payment_solution": {
+        "doku_hosted_payment": {
+            "psp_payment_reference": "xxxxxxxxxxxx",
+            "url_setting": {
+                "notification": "https://xxxxxxxxx"
+            },
+            "page_setting": {
+                "payment_option": "15"
+            },
+            "customer": {
+                "first_name": "xxxxxx",
+                "last_name": "xxxxxx",
+                "email": "qwerty"
+            },
+            "payment_method": {
+                </t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FFFF0000"/>
+        <color rgb="FF4472C4"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t xml:space="preserve">"metadata": {
-	  "merchant_refund_reference": "refund-12345678"
-	}
+      <t xml:space="preserve">"card": {
+                    "save_card": {
+                        "token": "xxxxxxxxxxx"
+                    }
+                },
 </t>
     </r>
     <r>
@@ -1072,51 +1295,188 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t>}</t>
+      <t xml:space="preserve">                </t>
     </r>
-  </si>
-  <si>
-    <t>List all Refunds for a Payment</t>
-  </si>
-  <si>
-    <t>Retrieve a Refund</t>
-  </si>
-  <si>
-    <t>POST /refunds/{id}</t>
-  </si>
-  <si>
-    <t>Update a Refund</t>
-  </si>
-  <si>
-    <t>System-generated UUID v4, e.g: refund-69ace59f-d3dd-40c4-9ce3-919c4a01b220</t>
-  </si>
-  <si>
-    <t>always "refund"</t>
-  </si>
-  <si>
-    <t>ID, derived from PAYMENT</t>
-  </si>
-  <si>
-    <t>• succeeded &gt; SUCCESS
-• falied &gt; FAILED</t>
-  </si>
-  <si>
-    <t>reason</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">"installment": {
+                    "plan_id": "xxxxxxxx"
+                }
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">            }
+        }
+    },
+    "items": [
+        {
+            "product_name": "Product Item 1",
+            "product_id": "A",
+            "unit_amount": 900,
+            "unit": 1,
+            "tax": 100,
+            "sub_amount": 1000
+        }
+    ],
+    "metadata": {
+        "merchant_payment_reference": "payment-12345678"
+    }
+}</t>
+    </r>
+  </si>
+  <si>
+    <t>e.g. "VND"</t>
+  </si>
+  <si>
+    <t>VN</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">Payoo:
+• created &gt; DCMS
+• captured &gt; 0, 2, 4
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">• failed &gt; ?? Payoo returns Response: 9 for both unpaid and failed payment
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>• cancelled &gt; 3
+• refunded &gt; DCMS logic
+Viettel:
+• created &gt; DCMS, -1, 0
+• captured &gt; 1
+• failed &gt; 2, 3
+• cancelled &gt; DCMS logic
+• refunded &gt; DCMS logic</t>
+    </r>
+  </si>
+  <si>
+    <t>[payment_solution]</t>
+  </si>
+  <si>
+    <t>•[doku_hosted_payment]</t>
+  </si>
+  <si>
+    <t>TRANSIDMERCHANT</t>
+  </si>
+  <si>
+    <t>••[access_method]</t>
+  </si>
+  <si>
+    <t>••[url_setting]</t>
+  </si>
+  <si>
+    <t>••[page_setting]</t>
+  </si>
+  <si>
+    <t>PAYMENTCHANNEL</t>
+  </si>
+  <si>
+    <t>••[customer]</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>EMAIL</t>
+  </si>
+  <si>
+    <t>••[payment_method]</t>
+  </si>
+  <si>
+    <t>•••[card]</t>
+  </si>
+  <si>
+    <t>CHNAME</t>
+  </si>
+  <si>
+    <t>BRAND</t>
+  </si>
+  <si>
+    <t>BANK</t>
+  </si>
+  <si>
+    <t>APPROVALCODE</t>
+  </si>
+  <si>
+    <t>MCN</t>
+  </si>
+  <si>
+    <t>THREESECURESTATUS</t>
+  </si>
+  <si>
+    <t>••••[dcc]</t>
+  </si>
+  <si>
+    <t>••••[save_card]</t>
+  </si>
+  <si>
+    <t>•••[installment]</t>
+  </si>
+  <si>
+    <t>can coexist with [card]</t>
+  </si>
+  <si>
+    <t>•••[wallet]</t>
+  </si>
+  <si>
+    <t>•••[virtual_account]</t>
+  </si>
+  <si>
+    <t>PAYMENTCODE</t>
+  </si>
+  <si>
+    <t>•••[internet_banking]</t>
+  </si>
+  <si>
+    <t>[metadata]</t>
+  </si>
+  <si>
+    <t>HSBC Fields</t>
+  </si>
+  <si>
+    <t>DOKU Fields</t>
+  </si>
+  <si>
+    <t>AMOUNT</t>
+  </si>
+  <si>
+    <t>CURRENCY</t>
+  </si>
+  <si>
+    <t>RESULTMSG</t>
   </si>
   <si>
     <t>REASON</t>
   </si>
   <si>
-    <t>psp_refund_reference</t>
-  </si>
-  <si>
     <t>REFIDMERCHANT</t>
-  </si>
-  <si>
-    <t>Generated by DCMS</t>
-  </si>
-  <si>
-    <t>payment_id</t>
   </si>
 </sst>
 </file>
@@ -1206,11 +1566,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF00B0F0"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
       <b/>
       <sz val="14"/>
       <color theme="1"/>
@@ -1219,6 +1574,11 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF4472C4"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -1458,7 +1818,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1701,7 +2061,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1735,6 +2095,30 @@
     <xf numFmtId="0" fontId="5" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1762,30 +2146,6 @@
     <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1795,15 +2155,6 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1812,6 +2163,27 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2141,7 +2513,7 @@
   <dimension ref="A1:Q48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
       <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
       <selection pane="bottomLeft"/>
       <selection pane="topRight"/>
@@ -3432,11 +3804,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22478C80-0BB6-46F1-B8D5-E24D0B299FBC}">
-  <dimension ref="A1:R44"/>
+  <dimension ref="A1:R53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2:C6"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B19" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="D56" sqref="D56"/>
       <selection pane="bottomLeft"/>
       <selection pane="topRight"/>
     </sheetView>
@@ -3471,14 +3843,14 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="110" t="s">
+    <row r="2" spans="1:6" ht="15.75">
+      <c r="A2" s="101" t="s">
         <v>100</v>
       </c>
       <c r="B2" s="75" t="s">
         <v>101</v>
       </c>
-      <c r="C2" s="100" t="s">
+      <c r="C2" s="108" t="s">
         <v>102</v>
       </c>
       <c r="D2" s="75" t="s">
@@ -3488,9 +3860,9 @@
       <c r="F2" s="95"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="111"/>
+      <c r="A3" s="102"/>
       <c r="B3" s="75"/>
-      <c r="C3" s="101"/>
+      <c r="C3" s="109"/>
       <c r="D3" s="75" t="s">
         <v>104</v>
       </c>
@@ -3498,9 +3870,9 @@
       <c r="F3" s="95"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="111"/>
+      <c r="A4" s="102"/>
       <c r="B4" s="75"/>
-      <c r="C4" s="101"/>
+      <c r="C4" s="109"/>
       <c r="D4" s="75" t="s">
         <v>105</v>
       </c>
@@ -3508,9 +3880,9 @@
       <c r="F4" s="95"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="111"/>
+      <c r="A5" s="102"/>
       <c r="B5" s="75"/>
-      <c r="C5" s="101"/>
+      <c r="C5" s="109"/>
       <c r="D5" s="75" t="s">
         <v>106</v>
       </c>
@@ -3518,9 +3890,9 @@
       <c r="F5" s="95"/>
     </row>
     <row r="6" spans="1:6" ht="139.5" customHeight="1">
-      <c r="A6" s="112"/>
+      <c r="A6" s="103"/>
       <c r="B6" s="75"/>
-      <c r="C6" s="102"/>
+      <c r="C6" s="110"/>
       <c r="D6" s="75" t="s">
         <v>107</v>
       </c>
@@ -3530,13 +3902,13 @@
       <c r="F6" s="95"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="113" t="s">
+      <c r="A7" s="104" t="s">
         <v>109</v>
       </c>
       <c r="B7" s="91" t="s">
         <v>101</v>
       </c>
-      <c r="C7" s="103" t="s">
+      <c r="C7" s="111" t="s">
         <v>110</v>
       </c>
       <c r="D7" s="91" t="s">
@@ -3548,9 +3920,9 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="114"/>
+      <c r="A8" s="105"/>
       <c r="B8" s="91"/>
-      <c r="C8" s="104"/>
+      <c r="C8" s="112"/>
       <c r="D8" s="91" t="s">
         <v>103</v>
       </c>
@@ -3558,9 +3930,9 @@
       <c r="F8" s="19"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="115"/>
+      <c r="A9" s="106"/>
       <c r="B9" s="91"/>
-      <c r="C9" s="104"/>
+      <c r="C9" s="112"/>
       <c r="D9" s="91" t="s">
         <v>113</v>
       </c>
@@ -3568,9 +3940,9 @@
       <c r="F9" s="19"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="115"/>
+      <c r="A10" s="106"/>
       <c r="B10" s="91"/>
-      <c r="C10" s="104"/>
+      <c r="C10" s="112"/>
       <c r="D10" s="91" t="s">
         <v>114</v>
       </c>
@@ -3580,9 +3952,9 @@
       <c r="F10" s="19"/>
     </row>
     <row r="11" spans="1:6" ht="253.5" customHeight="1">
-      <c r="A11" s="116"/>
+      <c r="A11" s="107"/>
       <c r="B11" s="91"/>
-      <c r="C11" s="105"/>
+      <c r="C11" s="113"/>
       <c r="D11" s="91" t="s">
         <v>116</v>
       </c>
@@ -3592,7 +3964,7 @@
       <c r="F11" s="19"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="106" t="s">
+      <c r="A12" s="114" t="s">
         <v>117</v>
       </c>
       <c r="B12" s="92" t="s">
@@ -3608,7 +3980,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75">
-      <c r="A13" s="106"/>
+      <c r="A13" s="114"/>
       <c r="B13" s="92"/>
       <c r="C13" s="93"/>
       <c r="D13" s="94" t="s">
@@ -3618,7 +3990,7 @@
       <c r="F13" s="93"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="106"/>
+      <c r="A14" s="114"/>
       <c r="B14" s="92"/>
       <c r="C14" s="93"/>
       <c r="D14" s="94" t="s">
@@ -3628,7 +4000,7 @@
       <c r="F14" s="93"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="106"/>
+      <c r="A15" s="114"/>
       <c r="B15" s="94" t="s">
         <v>21</v>
       </c>
@@ -3642,7 +4014,7 @@
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="106"/>
+      <c r="A16" s="114"/>
       <c r="B16" s="94"/>
       <c r="C16" s="93"/>
       <c r="D16" s="94" t="s">
@@ -3654,7 +4026,7 @@
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="106"/>
+      <c r="A17" s="114"/>
       <c r="B17" s="94"/>
       <c r="C17" s="93"/>
       <c r="D17" s="94" t="s">
@@ -3664,7 +4036,7 @@
       <c r="F17" s="93"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="106"/>
+      <c r="A18" s="114"/>
       <c r="B18" s="94" t="s">
         <v>125</v>
       </c>
@@ -3676,7 +4048,7 @@
       <c r="F18" s="93"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="108" t="s">
+      <c r="A19" s="116" t="s">
         <v>22</v>
       </c>
       <c r="B19" s="76" t="s">
@@ -3692,7 +4064,7 @@
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="108"/>
+      <c r="A20" s="116"/>
       <c r="B20" s="76"/>
       <c r="C20" s="77"/>
       <c r="D20" s="76" t="s">
@@ -3702,7 +4074,7 @@
       <c r="F20" s="77"/>
     </row>
     <row r="21" spans="1:6" ht="15.75">
-      <c r="A21" s="108"/>
+      <c r="A21" s="116"/>
       <c r="B21" s="76"/>
       <c r="C21" s="77"/>
       <c r="D21" s="76" t="s">
@@ -3712,7 +4084,7 @@
       <c r="F21" s="77"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="108"/>
+      <c r="A22" s="116"/>
       <c r="B22" s="76" t="s">
         <v>28</v>
       </c>
@@ -3726,7 +4098,7 @@
       <c r="F22" s="77"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="108"/>
+      <c r="A23" s="116"/>
       <c r="B23" s="76" t="s">
         <v>31</v>
       </c>
@@ -3738,7 +4110,7 @@
       <c r="F23" s="77"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="108"/>
+      <c r="A24" s="116"/>
       <c r="B24" s="76" t="s">
         <v>32</v>
       </c>
@@ -3751,12 +4123,12 @@
       <c r="E24" s="76"/>
       <c r="F24" s="77"/>
     </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="108"/>
+    <row r="25" spans="1:6" ht="15.75">
+      <c r="A25" s="116"/>
       <c r="B25" s="76" t="s">
         <v>133</v>
       </c>
-      <c r="C25" s="107" t="s">
+      <c r="C25" s="115" t="s">
         <v>134</v>
       </c>
       <c r="D25" s="76" t="s">
@@ -3766,11 +4138,11 @@
       <c r="F25" s="77"/>
     </row>
     <row r="26" spans="1:6" ht="32.25">
-      <c r="A26" s="108"/>
+      <c r="A26" s="116"/>
       <c r="B26" s="76" t="s">
         <v>57</v>
       </c>
-      <c r="C26" s="107"/>
+      <c r="C26" s="115"/>
       <c r="D26" s="76" t="s">
         <v>135</v>
       </c>
@@ -3780,11 +4152,11 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="32.25">
-      <c r="A27" s="108"/>
+      <c r="A27" s="116"/>
       <c r="B27" s="76" t="s">
         <v>137</v>
       </c>
-      <c r="C27" s="107"/>
+      <c r="C27" s="115"/>
       <c r="D27" s="76" t="s">
         <v>138</v>
       </c>
@@ -3794,7 +4166,7 @@
       <c r="F27" s="77"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="108"/>
+      <c r="A28" s="116"/>
       <c r="B28" s="76" t="s">
         <v>140</v>
       </c>
@@ -3810,7 +4182,7 @@
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="108"/>
+      <c r="A29" s="116"/>
       <c r="B29" s="76"/>
       <c r="C29" s="77"/>
       <c r="D29" s="76"/>
@@ -3820,7 +4192,7 @@
       <c r="F29" s="77"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="108"/>
+      <c r="A30" s="116"/>
       <c r="B30" s="76"/>
       <c r="C30" s="77"/>
       <c r="D30" s="76"/>
@@ -3830,7 +4202,7 @@
       <c r="F30" s="77"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="108"/>
+      <c r="A31" s="116"/>
       <c r="B31" s="76"/>
       <c r="C31" s="77"/>
       <c r="D31" s="76"/>
@@ -3840,7 +4212,7 @@
       <c r="F31" s="77"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="108"/>
+      <c r="A32" s="116"/>
       <c r="B32" s="76"/>
       <c r="C32" s="77"/>
       <c r="D32" s="76"/>
@@ -3850,7 +4222,7 @@
       <c r="F32" s="77"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="108"/>
+      <c r="A33" s="116"/>
       <c r="B33" s="76"/>
       <c r="C33" s="77"/>
       <c r="D33" s="76" t="s">
@@ -3860,7 +4232,7 @@
       <c r="F33" s="77"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="108"/>
+      <c r="A34" s="116"/>
       <c r="B34" s="76"/>
       <c r="C34" s="77"/>
       <c r="D34" s="76" t="s">
@@ -3872,7 +4244,7 @@
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="108"/>
+      <c r="A35" s="116"/>
       <c r="B35" s="76"/>
       <c r="C35" s="77"/>
       <c r="D35" s="76" t="s">
@@ -3884,7 +4256,7 @@
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="109" t="s">
+      <c r="A36" s="100" t="s">
         <v>56</v>
       </c>
       <c r="B36" s="89" t="s">
@@ -3900,7 +4272,7 @@
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="109"/>
+      <c r="A37" s="100"/>
       <c r="B37" s="89"/>
       <c r="C37" s="90"/>
       <c r="D37" s="89" t="s">
@@ -3910,7 +4282,7 @@
       <c r="F37" s="90"/>
     </row>
     <row r="38" spans="1:6" ht="15.75">
-      <c r="A38" s="109"/>
+      <c r="A38" s="100"/>
       <c r="B38" s="89"/>
       <c r="C38" s="90"/>
       <c r="D38" s="89" t="s">
@@ -3920,7 +4292,7 @@
       <c r="F38" s="90"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="109"/>
+      <c r="A39" s="100"/>
       <c r="B39" s="89" t="s">
         <v>58</v>
       </c>
@@ -3932,7 +4304,7 @@
       <c r="F39" s="90"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="109"/>
+      <c r="A40" s="100"/>
       <c r="B40" s="89" t="s">
         <v>153</v>
       </c>
@@ -3946,7 +4318,7 @@
       <c r="F40" s="90"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="109"/>
+      <c r="A41" s="100"/>
       <c r="B41" s="89" t="s">
         <v>154</v>
       </c>
@@ -3960,7 +4332,7 @@
       <c r="F41" s="90"/>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="109"/>
+      <c r="A42" s="100"/>
       <c r="B42" s="89"/>
       <c r="C42" s="90"/>
       <c r="D42" s="89" t="s">
@@ -3972,7 +4344,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="32.25">
-      <c r="A43" s="109"/>
+      <c r="A43" s="100"/>
       <c r="B43" s="89"/>
       <c r="C43" s="90"/>
       <c r="D43" s="89" t="s">
@@ -3984,7 +4356,7 @@
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="109"/>
+      <c r="A44" s="100"/>
       <c r="B44" s="89"/>
       <c r="C44" s="90"/>
       <c r="D44" s="89" t="s">
@@ -3993,8 +4365,105 @@
       <c r="E44" s="89"/>
       <c r="F44" s="90"/>
     </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="126" t="s">
+        <v>156</v>
+      </c>
+      <c r="B45" s="127"/>
+      <c r="C45" s="128"/>
+      <c r="D45" s="129" t="s">
+        <v>111</v>
+      </c>
+      <c r="E45" s="127"/>
+      <c r="F45" s="128" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="15.75">
+      <c r="A46" s="126"/>
+      <c r="B46" s="127"/>
+      <c r="C46" s="128"/>
+      <c r="D46" s="129" t="s">
+        <v>103</v>
+      </c>
+      <c r="E46" s="127"/>
+      <c r="F46" s="128"/>
+    </row>
+    <row r="47" spans="1:6" ht="15.75">
+      <c r="A47" s="126"/>
+      <c r="B47" s="127"/>
+      <c r="C47" s="128"/>
+      <c r="D47" s="129" t="s">
+        <v>119</v>
+      </c>
+      <c r="E47" s="127"/>
+      <c r="F47" s="128"/>
+    </row>
+    <row r="48" spans="1:6" ht="15.75">
+      <c r="A48" s="126"/>
+      <c r="B48" s="127"/>
+      <c r="C48" s="128"/>
+      <c r="D48" s="127" t="s">
+        <v>158</v>
+      </c>
+      <c r="E48" s="127"/>
+      <c r="F48" s="128"/>
+    </row>
+    <row r="49" spans="1:6" ht="15.75">
+      <c r="A49" s="126"/>
+      <c r="B49" s="127"/>
+      <c r="C49" s="128"/>
+      <c r="D49" s="127" t="s">
+        <v>159</v>
+      </c>
+      <c r="E49" s="127"/>
+      <c r="F49" s="128"/>
+    </row>
+    <row r="50" spans="1:6" ht="15.75">
+      <c r="A50" s="126"/>
+      <c r="B50" s="127"/>
+      <c r="C50" s="128"/>
+      <c r="D50" s="127" t="s">
+        <v>160</v>
+      </c>
+      <c r="E50" s="127"/>
+      <c r="F50" s="128"/>
+    </row>
+    <row r="51" spans="1:6" ht="15.75">
+      <c r="A51" s="126"/>
+      <c r="B51" s="127"/>
+      <c r="C51" s="128"/>
+      <c r="D51" s="127" t="s">
+        <v>161</v>
+      </c>
+      <c r="E51" s="127"/>
+      <c r="F51" s="128"/>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="126"/>
+      <c r="B52" s="127"/>
+      <c r="C52" s="128"/>
+      <c r="D52" s="127" t="s">
+        <v>162</v>
+      </c>
+      <c r="E52" s="127"/>
+      <c r="F52" s="128" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="15.75">
+      <c r="A53" s="126"/>
+      <c r="B53" s="127"/>
+      <c r="C53" s="128"/>
+      <c r="D53" s="127" t="s">
+        <v>164</v>
+      </c>
+      <c r="E53" s="127"/>
+      <c r="F53" s="128"/>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="A45:A53"/>
     <mergeCell ref="A36:A44"/>
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="A7:A11"/>
@@ -4010,800 +4479,1863 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E071D2A-C9BB-4A4F-900F-A0DBFA99CE1B}">
-  <dimension ref="A1:F98"/>
+  <dimension ref="A1:H112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="36.375" style="80" customWidth="1"/>
+    <col min="2" max="4" width="27.5" style="80" customWidth="1"/>
+    <col min="5" max="5" width="4.75" style="69" customWidth="1"/>
+    <col min="6" max="6" width="58.25" style="69" customWidth="1"/>
+    <col min="7" max="7" width="4.75" style="69" customWidth="1"/>
+    <col min="8" max="8" width="58.25" style="69" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="69"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="79" customFormat="1" ht="23.25">
+      <c r="A1" s="117" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="119"/>
+      <c r="F1" s="81" t="s">
+        <v>166</v>
+      </c>
+      <c r="H1" s="81" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="88" customFormat="1" ht="18.75">
+      <c r="A2" s="123" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" s="124"/>
+      <c r="C2" s="124" t="s">
+        <v>168</v>
+      </c>
+      <c r="D2" s="125"/>
+      <c r="F2" s="120" t="s">
+        <v>169</v>
+      </c>
+      <c r="H2" s="120" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="88" customFormat="1" ht="18.75">
+      <c r="A3" s="123" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="124"/>
+      <c r="C3" s="124" t="s">
+        <v>171</v>
+      </c>
+      <c r="D3" s="125"/>
+      <c r="F3" s="121"/>
+      <c r="H3" s="121"/>
+    </row>
+    <row r="4" spans="1:8" s="88" customFormat="1" ht="18.75">
+      <c r="A4" s="123" t="s">
+        <v>172</v>
+      </c>
+      <c r="B4" s="124"/>
+      <c r="C4" s="124" t="s">
+        <v>173</v>
+      </c>
+      <c r="D4" s="125"/>
+      <c r="F4" s="121"/>
+      <c r="H4" s="121"/>
+    </row>
+    <row r="5" spans="1:8" s="88" customFormat="1" ht="18.75">
+      <c r="A5" s="123" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="124"/>
+      <c r="C5" s="124" t="s">
+        <v>174</v>
+      </c>
+      <c r="D5" s="125"/>
+      <c r="F5" s="121"/>
+      <c r="H5" s="121"/>
+    </row>
+    <row r="6" spans="1:8" s="88" customFormat="1" ht="18.75">
+      <c r="A6" s="123" t="s">
+        <v>137</v>
+      </c>
+      <c r="B6" s="124"/>
+      <c r="C6" s="124" t="s">
+        <v>175</v>
+      </c>
+      <c r="D6" s="125"/>
+      <c r="F6" s="121"/>
+      <c r="H6" s="121"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A7" s="82" t="s">
+        <v>176</v>
+      </c>
+      <c r="B7" s="82" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="82" t="s">
+        <v>177</v>
+      </c>
+      <c r="D7" s="83" t="s">
+        <v>97</v>
+      </c>
+      <c r="F7" s="121"/>
+      <c r="H7" s="121"/>
+    </row>
+    <row r="8" spans="1:8" ht="45.75" customHeight="1">
+      <c r="A8" s="84" t="s">
+        <v>111</v>
+      </c>
+      <c r="B8" s="85" t="s">
+        <v>178</v>
+      </c>
+      <c r="C8" s="85"/>
+      <c r="D8" s="85"/>
+      <c r="F8" s="121"/>
+      <c r="H8" s="121"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="84" t="s">
+        <v>103</v>
+      </c>
+      <c r="B9" s="86" t="s">
+        <v>179</v>
+      </c>
+      <c r="C9" s="85"/>
+      <c r="D9" s="85"/>
+      <c r="F9" s="121"/>
+      <c r="H9" s="121"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="84" t="s">
+        <v>119</v>
+      </c>
+      <c r="B10" s="86" t="s">
+        <v>180</v>
+      </c>
+      <c r="C10" s="85"/>
+      <c r="D10" s="85"/>
+      <c r="F10" s="121"/>
+      <c r="H10" s="121"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="84" t="s">
+        <v>129</v>
+      </c>
+      <c r="B11" s="85"/>
+      <c r="C11" s="85" t="s">
+        <v>181</v>
+      </c>
+      <c r="D11" s="85" t="s">
+        <v>182</v>
+      </c>
+      <c r="F11" s="121"/>
+      <c r="H11" s="121"/>
+    </row>
+    <row r="12" spans="1:8" ht="32.25">
+      <c r="A12" s="84" t="s">
+        <v>130</v>
+      </c>
+      <c r="B12" s="85" t="s">
+        <v>183</v>
+      </c>
+      <c r="C12" s="85" t="s">
+        <v>184</v>
+      </c>
+      <c r="D12" s="85" t="s">
+        <v>185</v>
+      </c>
+      <c r="F12" s="121"/>
+      <c r="H12" s="121"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="84" t="s">
+        <v>186</v>
+      </c>
+      <c r="B13" s="85" t="s">
+        <v>187</v>
+      </c>
+      <c r="C13" s="85"/>
+      <c r="D13" s="85"/>
+      <c r="F13" s="121"/>
+      <c r="H13" s="121"/>
+    </row>
+    <row r="14" spans="1:8" ht="83.25" customHeight="1">
+      <c r="A14" s="84" t="s">
+        <v>135</v>
+      </c>
+      <c r="B14" s="85"/>
+      <c r="C14" s="85" t="s">
+        <v>188</v>
+      </c>
+      <c r="D14" s="85" t="s">
+        <v>189</v>
+      </c>
+      <c r="F14" s="121"/>
+      <c r="H14" s="121"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="84" t="s">
+        <v>132</v>
+      </c>
+      <c r="B15" s="85" t="s">
+        <v>190</v>
+      </c>
+      <c r="C15" s="85"/>
+      <c r="D15" s="85"/>
+      <c r="F15" s="121"/>
+      <c r="H15" s="121"/>
+    </row>
+    <row r="16" spans="1:8" ht="45.75" customHeight="1">
+      <c r="A16" s="84" t="s">
+        <v>191</v>
+      </c>
+      <c r="B16" s="85" t="s">
+        <v>192</v>
+      </c>
+      <c r="C16" s="85"/>
+      <c r="D16" s="85"/>
+      <c r="F16" s="121"/>
+      <c r="H16" s="121"/>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A17" s="84" t="s">
+        <v>193</v>
+      </c>
+      <c r="B17" s="85" t="s">
+        <v>194</v>
+      </c>
+      <c r="C17" s="85"/>
+      <c r="D17" s="85"/>
+      <c r="F17" s="121"/>
+      <c r="H17" s="121"/>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A18" s="84" t="s">
+        <v>195</v>
+      </c>
+      <c r="B18" s="85" t="s">
+        <v>194</v>
+      </c>
+      <c r="C18" s="85"/>
+      <c r="D18" s="85"/>
+      <c r="F18" s="121"/>
+      <c r="H18" s="121"/>
+    </row>
+    <row r="19" spans="1:8" ht="96.75">
+      <c r="A19" s="84" t="s">
+        <v>196</v>
+      </c>
+      <c r="B19" s="85"/>
+      <c r="C19" s="85" t="s">
+        <v>197</v>
+      </c>
+      <c r="D19" s="85" t="s">
+        <v>198</v>
+      </c>
+      <c r="F19" s="121"/>
+      <c r="H19" s="121"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="84" t="s">
+        <v>199</v>
+      </c>
+      <c r="B20" s="85"/>
+      <c r="C20" s="85"/>
+      <c r="D20" s="85"/>
+      <c r="F20" s="121"/>
+      <c r="H20" s="121"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="84" t="s">
+        <v>200</v>
+      </c>
+      <c r="B21" s="85"/>
+      <c r="C21" s="85"/>
+      <c r="D21" s="85"/>
+      <c r="F21" s="121"/>
+      <c r="H21" s="121"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="84" t="s">
+        <v>201</v>
+      </c>
+      <c r="B22" s="85" t="s">
+        <v>202</v>
+      </c>
+      <c r="C22" s="85" t="s">
+        <v>203</v>
+      </c>
+      <c r="D22" s="85"/>
+      <c r="F22" s="121"/>
+      <c r="H22" s="121"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="84" t="s">
+        <v>204</v>
+      </c>
+      <c r="B23" s="85"/>
+      <c r="C23" s="85"/>
+      <c r="D23" s="85"/>
+      <c r="F23" s="121"/>
+      <c r="H23" s="121"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="84" t="s">
+        <v>205</v>
+      </c>
+      <c r="B24" s="85" t="s">
+        <v>206</v>
+      </c>
+      <c r="C24" s="85"/>
+      <c r="D24" s="85"/>
+      <c r="F24" s="121"/>
+      <c r="H24" s="121"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="84" t="s">
+        <v>207</v>
+      </c>
+      <c r="B25" s="85"/>
+      <c r="C25" s="85"/>
+      <c r="D25" s="85"/>
+      <c r="F25" s="121"/>
+      <c r="H25" s="121"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="84" t="s">
+        <v>208</v>
+      </c>
+      <c r="B26" s="85" t="s">
+        <v>209</v>
+      </c>
+      <c r="C26" s="85"/>
+      <c r="D26" s="85"/>
+      <c r="F26" s="121"/>
+      <c r="H26" s="121"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="84" t="s">
+        <v>210</v>
+      </c>
+      <c r="B27" s="85"/>
+      <c r="C27" s="85"/>
+      <c r="D27" s="85"/>
+      <c r="F27" s="121"/>
+      <c r="H27" s="121"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="84" t="s">
+        <v>211</v>
+      </c>
+      <c r="B28" s="85"/>
+      <c r="C28" s="85" t="s">
+        <v>212</v>
+      </c>
+      <c r="D28" s="85"/>
+      <c r="F28" s="121"/>
+      <c r="H28" s="121"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="84" t="s">
+        <v>213</v>
+      </c>
+      <c r="B29" s="85"/>
+      <c r="C29" s="85"/>
+      <c r="D29" s="85"/>
+      <c r="F29" s="121"/>
+      <c r="H29" s="121"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="84" t="s">
+        <v>214</v>
+      </c>
+      <c r="B30" s="85" t="s">
+        <v>215</v>
+      </c>
+      <c r="C30" s="85" t="s">
+        <v>216</v>
+      </c>
+      <c r="D30" s="85"/>
+      <c r="F30" s="121"/>
+      <c r="H30" s="121"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="84" t="s">
+        <v>217</v>
+      </c>
+      <c r="B31" s="85"/>
+      <c r="C31" s="85" t="s">
+        <v>216</v>
+      </c>
+      <c r="D31" s="85"/>
+      <c r="F31" s="121"/>
+      <c r="H31" s="121"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="84" t="s">
+        <v>218</v>
+      </c>
+      <c r="B32" s="85"/>
+      <c r="C32" s="85" t="s">
+        <v>219</v>
+      </c>
+      <c r="D32" s="85"/>
+      <c r="F32" s="121"/>
+      <c r="H32" s="121"/>
+    </row>
+    <row r="33" spans="1:8" ht="32.25">
+      <c r="A33" s="84" t="s">
+        <v>220</v>
+      </c>
+      <c r="B33" s="85" t="s">
+        <v>221</v>
+      </c>
+      <c r="C33" s="85"/>
+      <c r="D33" s="85"/>
+      <c r="F33" s="121"/>
+      <c r="H33" s="121"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="84" t="s">
+        <v>222</v>
+      </c>
+      <c r="B34" s="85"/>
+      <c r="C34" s="85"/>
+      <c r="D34" s="85"/>
+      <c r="F34" s="121"/>
+      <c r="H34" s="121"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="84" t="s">
+        <v>223</v>
+      </c>
+      <c r="B35" s="85"/>
+      <c r="C35" s="85" t="s">
+        <v>224</v>
+      </c>
+      <c r="D35" s="85"/>
+      <c r="F35" s="121"/>
+      <c r="H35" s="121"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="84" t="s">
+        <v>225</v>
+      </c>
+      <c r="B36" s="85"/>
+      <c r="C36" s="85" t="s">
+        <v>226</v>
+      </c>
+      <c r="D36" s="85"/>
+      <c r="F36" s="121"/>
+      <c r="H36" s="121"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="84" t="s">
+        <v>227</v>
+      </c>
+      <c r="B37" s="85"/>
+      <c r="C37" s="85" t="s">
+        <v>228</v>
+      </c>
+      <c r="D37" s="85"/>
+      <c r="F37" s="121"/>
+      <c r="H37" s="121"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="84" t="s">
+        <v>229</v>
+      </c>
+      <c r="B38" s="85"/>
+      <c r="C38" s="85" t="s">
+        <v>230</v>
+      </c>
+      <c r="D38" s="85"/>
+      <c r="F38" s="121"/>
+      <c r="H38" s="121"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="84" t="s">
+        <v>231</v>
+      </c>
+      <c r="B39" s="85"/>
+      <c r="C39" s="85" t="s">
+        <v>232</v>
+      </c>
+      <c r="D39" s="85"/>
+      <c r="F39" s="121"/>
+      <c r="H39" s="121"/>
+    </row>
+    <row r="40" spans="1:8" ht="32.25">
+      <c r="A40" s="84" t="s">
+        <v>233</v>
+      </c>
+      <c r="B40" s="85"/>
+      <c r="C40" s="85" t="s">
+        <v>234</v>
+      </c>
+      <c r="D40" s="85" t="s">
+        <v>235</v>
+      </c>
+      <c r="F40" s="121"/>
+      <c r="H40" s="121"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="84" t="s">
+        <v>236</v>
+      </c>
+      <c r="B41" s="85" t="s">
+        <v>194</v>
+      </c>
+      <c r="C41" s="85"/>
+      <c r="D41" s="85"/>
+      <c r="F41" s="121"/>
+      <c r="H41" s="121"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="84" t="s">
+        <v>237</v>
+      </c>
+      <c r="B42" s="85" t="s">
+        <v>238</v>
+      </c>
+      <c r="C42" s="85"/>
+      <c r="D42" s="85"/>
+      <c r="F42" s="121"/>
+      <c r="H42" s="121"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="84" t="s">
+        <v>239</v>
+      </c>
+      <c r="B43" s="85" t="s">
+        <v>240</v>
+      </c>
+      <c r="C43" s="85"/>
+      <c r="D43" s="85"/>
+      <c r="F43" s="121"/>
+      <c r="H43" s="121"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="84" t="s">
+        <v>241</v>
+      </c>
+      <c r="B44" s="85" t="s">
+        <v>242</v>
+      </c>
+      <c r="C44" s="85"/>
+      <c r="D44" s="85"/>
+      <c r="F44" s="121"/>
+      <c r="H44" s="121"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="84" t="s">
+        <v>243</v>
+      </c>
+      <c r="B45" s="85" t="s">
+        <v>244</v>
+      </c>
+      <c r="C45" s="85"/>
+      <c r="D45" s="85"/>
+      <c r="F45" s="121"/>
+      <c r="H45" s="121"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="84" t="s">
+        <v>245</v>
+      </c>
+      <c r="B46" s="85"/>
+      <c r="C46" s="85"/>
+      <c r="D46" s="85"/>
+      <c r="F46" s="121"/>
+      <c r="H46" s="121"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="84" t="s">
+        <v>246</v>
+      </c>
+      <c r="B47" s="85" t="s">
+        <v>247</v>
+      </c>
+      <c r="C47" s="85"/>
+      <c r="D47" s="85"/>
+      <c r="F47" s="121"/>
+      <c r="H47" s="121"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="84" t="s">
+        <v>248</v>
+      </c>
+      <c r="B48" s="85"/>
+      <c r="C48" s="85"/>
+      <c r="D48" s="85"/>
+      <c r="F48" s="121"/>
+      <c r="H48" s="121"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="84" t="s">
+        <v>249</v>
+      </c>
+      <c r="B49" s="85"/>
+      <c r="C49" s="85" t="s">
+        <v>250</v>
+      </c>
+      <c r="D49" s="85"/>
+      <c r="F49" s="121"/>
+      <c r="H49" s="121"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="84" t="s">
+        <v>251</v>
+      </c>
+      <c r="B50" s="85"/>
+      <c r="C50" s="85"/>
+      <c r="D50" s="85"/>
+      <c r="F50" s="121"/>
+      <c r="H50" s="121"/>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="87" t="s">
+        <v>227</v>
+      </c>
+      <c r="B51" s="85"/>
+      <c r="C51" s="85" t="s">
+        <v>228</v>
+      </c>
+      <c r="D51" s="85"/>
+      <c r="F51" s="121"/>
+      <c r="H51" s="121"/>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="84" t="s">
+        <v>229</v>
+      </c>
+      <c r="B52" s="85"/>
+      <c r="C52" s="85" t="s">
+        <v>230</v>
+      </c>
+      <c r="D52" s="85"/>
+      <c r="F52" s="121"/>
+      <c r="H52" s="121"/>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="84" t="s">
+        <v>252</v>
+      </c>
+      <c r="B53" s="85"/>
+      <c r="C53" s="85"/>
+      <c r="D53" s="85"/>
+      <c r="F53" s="121"/>
+      <c r="H53" s="121"/>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="84" t="s">
+        <v>201</v>
+      </c>
+      <c r="B54" s="85"/>
+      <c r="C54" s="85"/>
+      <c r="D54" s="85"/>
+      <c r="F54" s="121"/>
+      <c r="H54" s="121"/>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="84" t="s">
+        <v>253</v>
+      </c>
+      <c r="B55" s="85"/>
+      <c r="C55" s="85" t="s">
+        <v>254</v>
+      </c>
+      <c r="D55" s="85"/>
+      <c r="F55" s="121"/>
+      <c r="H55" s="121"/>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="84" t="s">
+        <v>255</v>
+      </c>
+      <c r="B56" s="85"/>
+      <c r="C56" s="85" t="s">
+        <v>256</v>
+      </c>
+      <c r="D56" s="85"/>
+      <c r="F56" s="121"/>
+      <c r="H56" s="121"/>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="84" t="s">
+        <v>257</v>
+      </c>
+      <c r="B57" s="85" t="s">
+        <v>238</v>
+      </c>
+      <c r="C57" s="85"/>
+      <c r="D57" s="85"/>
+      <c r="F57" s="121"/>
+      <c r="H57" s="121"/>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="84" t="s">
+        <v>258</v>
+      </c>
+      <c r="B58" s="85"/>
+      <c r="C58" s="85" t="s">
+        <v>259</v>
+      </c>
+      <c r="D58" s="85"/>
+      <c r="F58" s="121"/>
+      <c r="H58" s="121"/>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="84" t="s">
+        <v>260</v>
+      </c>
+      <c r="B59" s="85"/>
+      <c r="C59" s="85" t="s">
+        <v>261</v>
+      </c>
+      <c r="D59" s="85"/>
+      <c r="F59" s="121"/>
+      <c r="H59" s="121"/>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="84" t="s">
+        <v>207</v>
+      </c>
+      <c r="B60" s="85"/>
+      <c r="C60" s="85"/>
+      <c r="D60" s="85"/>
+      <c r="F60" s="121"/>
+      <c r="H60" s="121"/>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="84" t="s">
+        <v>208</v>
+      </c>
+      <c r="B61" s="85"/>
+      <c r="C61" s="85"/>
+      <c r="D61" s="85"/>
+      <c r="F61" s="121"/>
+      <c r="H61" s="121"/>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="84" t="s">
+        <v>213</v>
+      </c>
+      <c r="B62" s="85"/>
+      <c r="C62" s="85"/>
+      <c r="D62" s="85"/>
+      <c r="F62" s="121"/>
+      <c r="H62" s="121"/>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="84" t="s">
+        <v>214</v>
+      </c>
+      <c r="B63" s="85"/>
+      <c r="C63" s="85"/>
+      <c r="D63" s="85"/>
+      <c r="F63" s="121"/>
+      <c r="H63" s="121"/>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="84" t="s">
+        <v>217</v>
+      </c>
+      <c r="B64" s="85"/>
+      <c r="C64" s="85"/>
+      <c r="D64" s="85"/>
+      <c r="F64" s="121"/>
+      <c r="H64" s="121"/>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="84" t="s">
+        <v>218</v>
+      </c>
+      <c r="B65" s="85"/>
+      <c r="C65" s="85"/>
+      <c r="D65" s="85"/>
+      <c r="F65" s="121"/>
+      <c r="H65" s="121"/>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="84" t="s">
+        <v>262</v>
+      </c>
+      <c r="B66" s="85"/>
+      <c r="C66" s="85"/>
+      <c r="D66" s="85"/>
+      <c r="F66" s="122"/>
+      <c r="H66" s="122"/>
+    </row>
+    <row r="67" spans="1:8" ht="15.75"/>
+    <row r="68" spans="1:8" ht="23.25">
+      <c r="A68" s="117" t="s">
+        <v>263</v>
+      </c>
+      <c r="B68" s="118"/>
+      <c r="C68" s="118"/>
+      <c r="D68" s="119"/>
+      <c r="F68" s="81" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="18.75">
+      <c r="A69" s="123" t="s">
+        <v>265</v>
+      </c>
+      <c r="B69" s="124"/>
+      <c r="C69" s="124" t="s">
+        <v>266</v>
+      </c>
+      <c r="D69" s="125"/>
+      <c r="F69" s="120" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="18.75">
+      <c r="A70" s="123" t="s">
+        <v>152</v>
+      </c>
+      <c r="B70" s="124"/>
+      <c r="C70" s="124" t="s">
+        <v>268</v>
+      </c>
+      <c r="D70" s="125"/>
+      <c r="F70" s="121"/>
+    </row>
+    <row r="71" spans="1:8" ht="18.75">
+      <c r="A71" s="123" t="s">
+        <v>58</v>
+      </c>
+      <c r="B71" s="124"/>
+      <c r="C71" s="124" t="s">
+        <v>269</v>
+      </c>
+      <c r="D71" s="125"/>
+      <c r="F71" s="121"/>
+    </row>
+    <row r="72" spans="1:8" ht="18.75">
+      <c r="A72" s="123" t="s">
+        <v>270</v>
+      </c>
+      <c r="B72" s="124"/>
+      <c r="C72" s="124" t="s">
+        <v>271</v>
+      </c>
+      <c r="D72" s="125"/>
+      <c r="F72" s="121"/>
+    </row>
+    <row r="73" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A73" s="82" t="s">
+        <v>176</v>
+      </c>
+      <c r="B73" s="82" t="s">
+        <v>97</v>
+      </c>
+      <c r="C73" s="82" t="s">
+        <v>177</v>
+      </c>
+      <c r="D73" s="83" t="s">
+        <v>97</v>
+      </c>
+      <c r="F73" s="121"/>
+    </row>
+    <row r="74" spans="1:8" ht="48.75">
+      <c r="A74" s="84" t="s">
+        <v>111</v>
+      </c>
+      <c r="B74" s="85" t="s">
+        <v>272</v>
+      </c>
+      <c r="C74" s="85"/>
+      <c r="D74" s="85"/>
+      <c r="F74" s="121"/>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="84" t="s">
+        <v>103</v>
+      </c>
+      <c r="B75" s="86" t="s">
+        <v>273</v>
+      </c>
+      <c r="C75" s="85"/>
+      <c r="D75" s="85"/>
+      <c r="F75" s="121"/>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="84" t="s">
+        <v>119</v>
+      </c>
+      <c r="B76" s="86" t="s">
+        <v>180</v>
+      </c>
+      <c r="C76" s="85"/>
+      <c r="D76" s="85"/>
+      <c r="F76" s="121"/>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="84" t="s">
+        <v>129</v>
+      </c>
+      <c r="B77" s="85"/>
+      <c r="C77" s="85" t="s">
+        <v>181</v>
+      </c>
+      <c r="D77" s="85" t="s">
+        <v>182</v>
+      </c>
+      <c r="F77" s="121"/>
+    </row>
+    <row r="78" spans="1:8" ht="32.25">
+      <c r="A78" s="84" t="s">
+        <v>130</v>
+      </c>
+      <c r="B78" s="85" t="s">
+        <v>183</v>
+      </c>
+      <c r="C78" s="85" t="s">
+        <v>184</v>
+      </c>
+      <c r="D78" s="85" t="s">
+        <v>185</v>
+      </c>
+      <c r="F78" s="121"/>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="84" t="s">
+        <v>186</v>
+      </c>
+      <c r="B79" s="85" t="s">
+        <v>274</v>
+      </c>
+      <c r="C79" s="85"/>
+      <c r="D79" s="85"/>
+      <c r="F79" s="121"/>
+    </row>
+    <row r="80" spans="1:8" ht="32.25">
+      <c r="A80" s="84" t="s">
+        <v>135</v>
+      </c>
+      <c r="B80" s="85"/>
+      <c r="C80" s="85" t="s">
+        <v>188</v>
+      </c>
+      <c r="D80" s="85" t="s">
+        <v>275</v>
+      </c>
+      <c r="F80" s="121"/>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="84" t="s">
+        <v>132</v>
+      </c>
+      <c r="B81" s="85" t="s">
+        <v>190</v>
+      </c>
+      <c r="C81" s="85"/>
+      <c r="D81" s="85"/>
+      <c r="F81" s="121"/>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="84" t="s">
+        <v>276</v>
+      </c>
+      <c r="B82" s="85"/>
+      <c r="C82" s="85" t="s">
+        <v>277</v>
+      </c>
+      <c r="D82" s="85"/>
+      <c r="F82" s="121"/>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="84" t="s">
+        <v>278</v>
+      </c>
+      <c r="B83" s="85"/>
+      <c r="C83" s="85" t="s">
+        <v>279</v>
+      </c>
+      <c r="D83" s="85" t="s">
+        <v>280</v>
+      </c>
+      <c r="F83" s="121"/>
+    </row>
+    <row r="84" spans="1:6" ht="45.75" customHeight="1">
+      <c r="A84" s="84" t="s">
+        <v>281</v>
+      </c>
+      <c r="B84" s="85" t="s">
+        <v>178</v>
+      </c>
+      <c r="C84" s="85"/>
+      <c r="D84" s="85"/>
+      <c r="F84" s="121"/>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="84" t="s">
+        <v>262</v>
+      </c>
+      <c r="B85" s="85"/>
+      <c r="C85" s="85"/>
+      <c r="D85" s="85"/>
+      <c r="F85" s="122"/>
+    </row>
+    <row r="86" spans="1:6" ht="15.75"/>
+    <row r="87" spans="1:6" ht="15.75"/>
+    <row r="88" spans="1:6" ht="15.75"/>
+    <row r="89" spans="1:6" ht="15.75"/>
+    <row r="90" spans="1:6" ht="15.75"/>
+    <row r="91" spans="1:6" ht="15.75"/>
+    <row r="92" spans="1:6" ht="15.75"/>
+    <row r="93" spans="1:6" ht="15.75"/>
+    <row r="94" spans="1:6" ht="15.75"/>
+    <row r="95" spans="1:6" ht="15.75"/>
+    <row r="96" spans="1:6" ht="15.75"/>
+    <row r="97" ht="15.75"/>
+    <row r="98" ht="15.75"/>
+    <row r="99" ht="15.75"/>
+    <row r="100" ht="15.75"/>
+    <row r="101" ht="15.75"/>
+    <row r="102" ht="15.75"/>
+    <row r="103" ht="15.75"/>
+    <row r="104" ht="15.75"/>
+    <row r="105" ht="15.75"/>
+    <row r="106" ht="15.75"/>
+    <row r="107" ht="15.75"/>
+    <row r="108" ht="15.75"/>
+    <row r="109" ht="15.75"/>
+    <row r="110" ht="15.75"/>
+    <row r="111" ht="15.75"/>
+    <row r="112" ht="15.75"/>
+  </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="H2:H66"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F2:F66"/>
+    <mergeCell ref="F69:F85"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="A68:D68"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BFC73AC-DBF6-4698-97F5-429727FA3B56}">
+  <dimension ref="A1:F98"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="31.625" style="80" customWidth="1"/>
     <col min="2" max="4" width="27.5" style="80" customWidth="1"/>
     <col min="5" max="5" width="9" style="69"/>
     <col min="6" max="6" width="72.125" style="69" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="69"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="79" customFormat="1" ht="23.25">
+    <row r="1" spans="1:6" ht="23.25">
       <c r="A1" s="117" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="B1" s="118"/>
       <c r="C1" s="118"/>
       <c r="D1" s="119"/>
+      <c r="E1" s="79"/>
       <c r="F1" s="81" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="88" customFormat="1" ht="18.75">
-      <c r="A2" s="120" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="18.75">
+      <c r="A2" s="123" t="s">
         <v>127</v>
       </c>
-      <c r="B2" s="121"/>
-      <c r="C2" s="121" t="s">
-        <v>158</v>
-      </c>
-      <c r="D2" s="122"/>
-      <c r="F2" s="123" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="88" customFormat="1" ht="18.75">
-      <c r="A3" s="120" t="s">
+      <c r="B2" s="124"/>
+      <c r="C2" s="124" t="s">
+        <v>168</v>
+      </c>
+      <c r="D2" s="125"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="120" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="18.75">
+      <c r="A3" s="123" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="121"/>
-      <c r="C3" s="121" t="s">
-        <v>160</v>
-      </c>
-      <c r="D3" s="122"/>
-      <c r="F3" s="124"/>
-    </row>
-    <row r="4" spans="1:6" s="88" customFormat="1" ht="18.75">
-      <c r="A4" s="120" t="s">
-        <v>161</v>
-      </c>
-      <c r="B4" s="121"/>
-      <c r="C4" s="121" t="s">
-        <v>162</v>
-      </c>
-      <c r="D4" s="122"/>
-      <c r="F4" s="124"/>
-    </row>
-    <row r="5" spans="1:6" s="88" customFormat="1" ht="18.75">
-      <c r="A5" s="120" t="s">
+      <c r="B3" s="124"/>
+      <c r="C3" s="124" t="s">
+        <v>171</v>
+      </c>
+      <c r="D3" s="125"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="121"/>
+    </row>
+    <row r="4" spans="1:6" ht="18.75">
+      <c r="A4" s="123" t="s">
+        <v>172</v>
+      </c>
+      <c r="B4" s="124"/>
+      <c r="C4" s="124" t="s">
+        <v>173</v>
+      </c>
+      <c r="D4" s="125"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="121"/>
+    </row>
+    <row r="5" spans="1:6" ht="18.75">
+      <c r="A5" s="123" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="121"/>
-      <c r="C5" s="121" t="s">
-        <v>163</v>
-      </c>
-      <c r="D5" s="122"/>
-      <c r="F5" s="124"/>
-    </row>
-    <row r="6" spans="1:6" s="88" customFormat="1" ht="18.75">
-      <c r="A6" s="120" t="s">
-        <v>137</v>
-      </c>
-      <c r="B6" s="121"/>
-      <c r="C6" s="121" t="s">
-        <v>164</v>
-      </c>
-      <c r="D6" s="122"/>
-      <c r="F6" s="124"/>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A7" s="82" t="s">
-        <v>165</v>
-      </c>
-      <c r="B7" s="82" t="s">
+      <c r="B5" s="124"/>
+      <c r="C5" s="124" t="s">
+        <v>174</v>
+      </c>
+      <c r="D5" s="125"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="121"/>
+    </row>
+    <row r="6" spans="1:6" ht="15.75">
+      <c r="A6" s="82" t="s">
+        <v>176</v>
+      </c>
+      <c r="B6" s="82" t="s">
         <v>97</v>
       </c>
-      <c r="C7" s="82" t="s">
-        <v>166</v>
-      </c>
-      <c r="D7" s="83" t="s">
+      <c r="C6" s="82" t="s">
+        <v>177</v>
+      </c>
+      <c r="D6" s="83" t="s">
         <v>97</v>
       </c>
-      <c r="F7" s="124"/>
-    </row>
-    <row r="8" spans="1:6" ht="45.75" customHeight="1">
+      <c r="F6" s="121"/>
+    </row>
+    <row r="7" spans="1:6" ht="64.5">
+      <c r="A7" s="84" t="s">
+        <v>111</v>
+      </c>
+      <c r="B7" s="85" t="s">
+        <v>178</v>
+      </c>
+      <c r="C7" s="85"/>
+      <c r="D7" s="85"/>
+      <c r="F7" s="121"/>
+    </row>
+    <row r="8" spans="1:6" ht="16.5">
       <c r="A8" s="84" t="s">
-        <v>111</v>
-      </c>
-      <c r="B8" s="85" t="s">
-        <v>167</v>
+        <v>103</v>
+      </c>
+      <c r="B8" s="86" t="s">
+        <v>179</v>
       </c>
       <c r="C8" s="85"/>
       <c r="D8" s="85"/>
-      <c r="F8" s="124"/>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="F8" s="121"/>
+    </row>
+    <row r="9" spans="1:6" ht="16.5">
       <c r="A9" s="84" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="B9" s="86" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="C9" s="85"/>
       <c r="D9" s="85"/>
-      <c r="F9" s="124"/>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="F9" s="121"/>
+    </row>
+    <row r="10" spans="1:6" ht="16.5">
       <c r="A10" s="84" t="s">
-        <v>119</v>
-      </c>
-      <c r="B10" s="86" t="s">
-        <v>169</v>
-      </c>
-      <c r="C10" s="85"/>
+        <v>129</v>
+      </c>
+      <c r="B10" s="85"/>
+      <c r="C10" s="85" t="s">
+        <v>129</v>
+      </c>
       <c r="D10" s="85"/>
-      <c r="F10" s="124"/>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="F10" s="121"/>
+    </row>
+    <row r="11" spans="1:6" ht="16.5">
       <c r="A11" s="84" t="s">
-        <v>129</v>
-      </c>
-      <c r="B11" s="85"/>
+        <v>130</v>
+      </c>
+      <c r="B11" s="85" t="s">
+        <v>283</v>
+      </c>
       <c r="C11" s="85" t="s">
-        <v>170</v>
-      </c>
-      <c r="D11" s="85" t="s">
-        <v>171</v>
-      </c>
-      <c r="F11" s="124"/>
-    </row>
-    <row r="12" spans="1:6" ht="32.25">
+        <v>130</v>
+      </c>
+      <c r="D11" s="85"/>
+      <c r="F11" s="121"/>
+    </row>
+    <row r="12" spans="1:6" ht="16.5">
       <c r="A12" s="84" t="s">
-        <v>130</v>
+        <v>186</v>
       </c>
       <c r="B12" s="85" t="s">
-        <v>172</v>
-      </c>
-      <c r="C12" s="85" t="s">
-        <v>173</v>
-      </c>
-      <c r="D12" s="85" t="s">
-        <v>174</v>
-      </c>
-      <c r="F12" s="124"/>
-    </row>
-    <row r="13" spans="1:6">
+        <v>284</v>
+      </c>
+      <c r="C12" s="85"/>
+      <c r="D12" s="85"/>
+      <c r="F12" s="121"/>
+    </row>
+    <row r="13" spans="1:6" ht="243">
       <c r="A13" s="84" t="s">
-        <v>175</v>
-      </c>
-      <c r="B13" s="85" t="s">
-        <v>176</v>
-      </c>
-      <c r="C13" s="85"/>
-      <c r="D13" s="85"/>
-      <c r="F13" s="124"/>
-    </row>
-    <row r="14" spans="1:6" ht="83.25" customHeight="1">
+        <v>135</v>
+      </c>
+      <c r="B13" s="85"/>
+      <c r="C13" s="85" t="s">
+        <v>135</v>
+      </c>
+      <c r="D13" s="85" t="s">
+        <v>285</v>
+      </c>
+      <c r="F13" s="121"/>
+    </row>
+    <row r="14" spans="1:6" ht="16.5">
       <c r="A14" s="84" t="s">
-        <v>135</v>
-      </c>
-      <c r="B14" s="85"/>
+        <v>132</v>
+      </c>
+      <c r="B14" s="85" t="s">
+        <v>190</v>
+      </c>
       <c r="C14" s="85" t="s">
-        <v>177</v>
-      </c>
-      <c r="D14" s="85" t="s">
-        <v>178</v>
-      </c>
-      <c r="F14" s="124"/>
-    </row>
-    <row r="15" spans="1:6">
+        <v>132</v>
+      </c>
+      <c r="D14" s="85"/>
+      <c r="F14" s="121"/>
+    </row>
+    <row r="15" spans="1:6" ht="48.75">
       <c r="A15" s="84" t="s">
-        <v>132</v>
+        <v>191</v>
       </c>
       <c r="B15" s="85" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="C15" s="85"/>
       <c r="D15" s="85"/>
-      <c r="F15" s="124"/>
-    </row>
-    <row r="16" spans="1:6" ht="45.75" customHeight="1">
+      <c r="F15" s="121"/>
+    </row>
+    <row r="16" spans="1:6" ht="16.5">
       <c r="A16" s="84" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="B16" s="85" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="C16" s="85"/>
       <c r="D16" s="85"/>
-      <c r="F16" s="124"/>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1">
+      <c r="F16" s="121"/>
+    </row>
+    <row r="17" spans="1:6" ht="16.5">
       <c r="A17" s="84" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="B17" s="85" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="C17" s="85"/>
       <c r="D17" s="85"/>
-      <c r="F17" s="124"/>
-    </row>
-    <row r="18" spans="1:6" ht="15.75" customHeight="1">
+      <c r="F17" s="121"/>
+    </row>
+    <row r="18" spans="1:6" ht="16.5">
       <c r="A18" s="84" t="s">
-        <v>184</v>
-      </c>
-      <c r="B18" s="85" t="s">
-        <v>183</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="B18" s="85"/>
       <c r="C18" s="85"/>
       <c r="D18" s="85"/>
-      <c r="F18" s="124"/>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="F18" s="121"/>
+    </row>
+    <row r="19" spans="1:6" ht="16.5">
       <c r="A19" s="84" t="s">
-        <v>185</v>
+        <v>287</v>
       </c>
       <c r="B19" s="85"/>
       <c r="C19" s="85"/>
       <c r="D19" s="85"/>
-      <c r="F19" s="124"/>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="F19" s="121"/>
+    </row>
+    <row r="20" spans="1:6" ht="16.5">
       <c r="A20" s="84" t="s">
-        <v>186</v>
-      </c>
-      <c r="B20" s="85"/>
-      <c r="C20" s="85"/>
+        <v>201</v>
+      </c>
+      <c r="B20" s="85" t="s">
+        <v>202</v>
+      </c>
+      <c r="C20" s="85" t="s">
+        <v>288</v>
+      </c>
       <c r="D20" s="85"/>
-      <c r="F20" s="124"/>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="F20" s="121"/>
+    </row>
+    <row r="21" spans="1:6" ht="16.5">
       <c r="A21" s="84" t="s">
-        <v>187</v>
+        <v>289</v>
       </c>
       <c r="B21" s="85"/>
-      <c r="C21" s="85" t="s">
-        <v>188</v>
-      </c>
+      <c r="C21" s="85"/>
       <c r="D21" s="85"/>
-      <c r="F21" s="124"/>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="F21" s="121"/>
+    </row>
+    <row r="22" spans="1:6" ht="16.5">
       <c r="A22" s="84" t="s">
-        <v>189</v>
-      </c>
-      <c r="B22" s="85"/>
+        <v>205</v>
+      </c>
+      <c r="B22" s="85" t="s">
+        <v>206</v>
+      </c>
       <c r="C22" s="85"/>
       <c r="D22" s="85"/>
-      <c r="F22" s="124"/>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="F22" s="121"/>
+    </row>
+    <row r="23" spans="1:6" ht="16.5">
       <c r="A23" s="84" t="s">
-        <v>190</v>
-      </c>
-      <c r="B23" s="85" t="s">
-        <v>191</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="B23" s="85"/>
       <c r="C23" s="85"/>
       <c r="D23" s="85"/>
-      <c r="F23" s="124"/>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="F23" s="121"/>
+    </row>
+    <row r="24" spans="1:6" ht="16.5">
       <c r="A24" s="84" t="s">
-        <v>192</v>
-      </c>
-      <c r="B24" s="85"/>
+        <v>208</v>
+      </c>
+      <c r="B24" s="85" t="s">
+        <v>209</v>
+      </c>
       <c r="C24" s="85"/>
       <c r="D24" s="85"/>
-      <c r="F24" s="124"/>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="F24" s="121"/>
+    </row>
+    <row r="25" spans="1:6" ht="16.5">
       <c r="A25" s="84" t="s">
-        <v>193</v>
-      </c>
-      <c r="B25" s="85" t="s">
-        <v>194</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="B25" s="85"/>
       <c r="C25" s="85"/>
       <c r="D25" s="85"/>
-      <c r="F25" s="124"/>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="F25" s="121"/>
+    </row>
+    <row r="26" spans="1:6" ht="16.5">
       <c r="A26" s="84" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="B26" s="85"/>
-      <c r="C26" s="85"/>
+      <c r="C26" s="85" t="s">
+        <v>292</v>
+      </c>
       <c r="D26" s="85"/>
-      <c r="F26" s="124"/>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="F26" s="121"/>
+    </row>
+    <row r="27" spans="1:6" ht="16.5">
       <c r="A27" s="84" t="s">
-        <v>196</v>
+        <v>293</v>
       </c>
       <c r="B27" s="85"/>
-      <c r="C27" s="85" t="s">
-        <v>197</v>
-      </c>
+      <c r="C27" s="85"/>
       <c r="D27" s="85"/>
-      <c r="F27" s="124"/>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="F27" s="121"/>
+    </row>
+    <row r="28" spans="1:6" ht="16.5">
       <c r="A28" s="84" t="s">
-        <v>198</v>
-      </c>
-      <c r="B28" s="85"/>
-      <c r="C28" s="85"/>
+        <v>214</v>
+      </c>
+      <c r="B28" s="85" t="s">
+        <v>215</v>
+      </c>
+      <c r="C28" s="85" t="s">
+        <v>294</v>
+      </c>
       <c r="D28" s="85"/>
-      <c r="F28" s="124"/>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="F28" s="121"/>
+    </row>
+    <row r="29" spans="1:6" ht="16.5">
       <c r="A29" s="84" t="s">
-        <v>199</v>
-      </c>
-      <c r="B29" s="85" t="s">
-        <v>200</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="B29" s="85"/>
       <c r="C29" s="85" t="s">
-        <v>201</v>
+        <v>294</v>
       </c>
       <c r="D29" s="85"/>
-      <c r="F29" s="124"/>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="F29" s="121"/>
+    </row>
+    <row r="30" spans="1:6" ht="16.5">
       <c r="A30" s="84" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="B30" s="85"/>
       <c r="C30" s="85" t="s">
-        <v>201</v>
+        <v>295</v>
       </c>
       <c r="D30" s="85"/>
-      <c r="F30" s="124"/>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="F30" s="121"/>
+    </row>
+    <row r="31" spans="1:6" ht="32.25">
       <c r="A31" s="84" t="s">
-        <v>203</v>
-      </c>
-      <c r="B31" s="85"/>
-      <c r="C31" s="85" t="s">
-        <v>204</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="B31" s="85" t="s">
+        <v>221</v>
+      </c>
+      <c r="C31" s="85"/>
       <c r="D31" s="85"/>
-      <c r="F31" s="124"/>
-    </row>
-    <row r="32" spans="1:6" ht="32.25">
+      <c r="F31" s="121"/>
+    </row>
+    <row r="32" spans="1:6" ht="16.5">
       <c r="A32" s="84" t="s">
-        <v>205</v>
-      </c>
-      <c r="B32" s="85" t="s">
-        <v>206</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="B32" s="85"/>
       <c r="C32" s="85"/>
       <c r="D32" s="85"/>
-      <c r="F32" s="124"/>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="F32" s="121"/>
+    </row>
+    <row r="33" spans="1:6" ht="16.5">
       <c r="A33" s="84" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="B33" s="85"/>
-      <c r="C33" s="85"/>
+      <c r="C33" s="85" t="s">
+        <v>298</v>
+      </c>
       <c r="D33" s="85"/>
-      <c r="F33" s="124"/>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="F33" s="121"/>
+    </row>
+    <row r="34" spans="1:6" ht="16.5">
       <c r="A34" s="84" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="B34" s="85"/>
       <c r="C34" s="85" t="s">
-        <v>209</v>
+        <v>299</v>
       </c>
       <c r="D34" s="85"/>
-      <c r="F34" s="124"/>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="F34" s="121"/>
+    </row>
+    <row r="35" spans="1:6" ht="16.5">
       <c r="A35" s="84" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="B35" s="85"/>
       <c r="C35" s="85" t="s">
-        <v>211</v>
+        <v>300</v>
       </c>
       <c r="D35" s="85"/>
-      <c r="F35" s="124"/>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="F35" s="121"/>
+    </row>
+    <row r="36" spans="1:6" ht="16.5">
       <c r="A36" s="84" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="B36" s="85"/>
       <c r="C36" s="85" t="s">
-        <v>213</v>
+        <v>301</v>
       </c>
       <c r="D36" s="85"/>
-      <c r="F36" s="124"/>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="F36" s="121"/>
+    </row>
+    <row r="37" spans="1:6" ht="16.5">
       <c r="A37" s="84" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="B37" s="85"/>
       <c r="C37" s="85" t="s">
-        <v>215</v>
+        <v>302</v>
       </c>
       <c r="D37" s="85"/>
-      <c r="F37" s="124"/>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="F37" s="121"/>
+    </row>
+    <row r="38" spans="1:6" ht="32.25">
       <c r="A38" s="84" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="B38" s="85"/>
       <c r="C38" s="85" t="s">
-        <v>217</v>
-      </c>
-      <c r="D38" s="85"/>
-      <c r="F38" s="124"/>
-    </row>
-    <row r="39" spans="1:6" ht="32.25">
+        <v>303</v>
+      </c>
+      <c r="D38" s="85" t="s">
+        <v>235</v>
+      </c>
+      <c r="F38" s="121"/>
+    </row>
+    <row r="39" spans="1:6" ht="16.5">
       <c r="A39" s="84" t="s">
-        <v>218</v>
-      </c>
-      <c r="B39" s="85"/>
-      <c r="C39" s="85" t="s">
-        <v>219</v>
-      </c>
-      <c r="D39" s="85" t="s">
-        <v>220</v>
-      </c>
-      <c r="F39" s="124"/>
-    </row>
-    <row r="40" spans="1:6">
+        <v>304</v>
+      </c>
+      <c r="B39" s="85" t="s">
+        <v>194</v>
+      </c>
+      <c r="C39" s="85"/>
+      <c r="D39" s="85"/>
+      <c r="F39" s="121"/>
+    </row>
+    <row r="40" spans="1:6" ht="16.5">
       <c r="A40" s="84" t="s">
-        <v>221</v>
-      </c>
-      <c r="B40" s="85" t="s">
-        <v>183</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="B40" s="85"/>
       <c r="C40" s="85"/>
       <c r="D40" s="85"/>
-      <c r="F40" s="124"/>
-    </row>
-    <row r="41" spans="1:6">
+      <c r="F40" s="121"/>
+    </row>
+    <row r="41" spans="1:6" ht="16.5">
       <c r="A41" s="84" t="s">
-        <v>222</v>
-      </c>
-      <c r="B41" s="85"/>
+        <v>239</v>
+      </c>
+      <c r="B41" s="85" t="s">
+        <v>240</v>
+      </c>
       <c r="C41" s="85"/>
       <c r="D41" s="85"/>
-      <c r="F41" s="124"/>
-    </row>
-    <row r="42" spans="1:6">
+      <c r="F41" s="121"/>
+    </row>
+    <row r="42" spans="1:6" ht="16.5">
       <c r="A42" s="84" t="s">
-        <v>223</v>
+        <v>306</v>
       </c>
       <c r="B42" s="85" t="s">
-        <v>224</v>
+        <v>307</v>
       </c>
       <c r="C42" s="85"/>
       <c r="D42" s="85"/>
-      <c r="F42" s="124"/>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="F42" s="121"/>
+    </row>
+    <row r="43" spans="1:6" ht="16.5">
       <c r="A43" s="84" t="s">
-        <v>225</v>
+        <v>243</v>
       </c>
       <c r="B43" s="85" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="C43" s="85"/>
       <c r="D43" s="85"/>
-      <c r="F43" s="124"/>
-    </row>
-    <row r="44" spans="1:6">
+      <c r="F43" s="121"/>
+    </row>
+    <row r="44" spans="1:6" ht="16.5">
       <c r="A44" s="84" t="s">
-        <v>227</v>
-      </c>
-      <c r="B44" s="85" t="s">
-        <v>228</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="B44" s="85"/>
       <c r="C44" s="85"/>
       <c r="D44" s="85"/>
-      <c r="F44" s="124"/>
-    </row>
-    <row r="45" spans="1:6">
+      <c r="F44" s="121"/>
+    </row>
+    <row r="45" spans="1:6" ht="16.5">
       <c r="A45" s="84" t="s">
-        <v>229</v>
-      </c>
-      <c r="B45" s="85"/>
+        <v>246</v>
+      </c>
+      <c r="B45" s="85" t="s">
+        <v>247</v>
+      </c>
       <c r="C45" s="85"/>
       <c r="D45" s="85"/>
-      <c r="F45" s="124"/>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="F45" s="121"/>
+    </row>
+    <row r="46" spans="1:6" ht="16.5">
       <c r="A46" s="84" t="s">
-        <v>230</v>
-      </c>
-      <c r="B46" s="85" t="s">
-        <v>231</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="B46" s="85"/>
       <c r="C46" s="85"/>
       <c r="D46" s="85"/>
-      <c r="F46" s="124"/>
-    </row>
-    <row r="47" spans="1:6">
+      <c r="F46" s="121"/>
+    </row>
+    <row r="47" spans="1:6" ht="16.5">
       <c r="A47" s="84" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="B47" s="85"/>
-      <c r="C47" s="85"/>
+      <c r="C47" s="85" t="s">
+        <v>310</v>
+      </c>
       <c r="D47" s="85"/>
-      <c r="F47" s="124"/>
-    </row>
-    <row r="48" spans="1:6">
+      <c r="F47" s="121"/>
+    </row>
+    <row r="48" spans="1:6" ht="16.5">
       <c r="A48" s="84" t="s">
-        <v>233</v>
+        <v>311</v>
       </c>
       <c r="B48" s="85"/>
-      <c r="C48" s="85" t="s">
-        <v>234</v>
-      </c>
+      <c r="C48" s="85"/>
       <c r="D48" s="85"/>
-      <c r="F48" s="124"/>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="84" t="s">
-        <v>235</v>
+      <c r="F48" s="121"/>
+    </row>
+    <row r="49" spans="1:6" ht="16.5">
+      <c r="A49" s="87" t="s">
+        <v>227</v>
       </c>
       <c r="B49" s="85"/>
-      <c r="C49" s="85"/>
+      <c r="C49" s="85" t="s">
+        <v>300</v>
+      </c>
       <c r="D49" s="85"/>
-      <c r="F49" s="124"/>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="87" t="s">
-        <v>212</v>
+      <c r="F49" s="121"/>
+    </row>
+    <row r="50" spans="1:6" ht="16.5">
+      <c r="A50" s="84" t="s">
+        <v>229</v>
       </c>
       <c r="B50" s="85"/>
       <c r="C50" s="85" t="s">
-        <v>213</v>
+        <v>301</v>
       </c>
       <c r="D50" s="85"/>
-      <c r="F50" s="124"/>
-    </row>
-    <row r="51" spans="1:6">
+      <c r="F50" s="121"/>
+    </row>
+    <row r="51" spans="1:6" ht="16.5">
       <c r="A51" s="84" t="s">
-        <v>214</v>
+        <v>312</v>
       </c>
       <c r="B51" s="85"/>
-      <c r="C51" s="85" t="s">
-        <v>215</v>
-      </c>
+      <c r="C51" s="85"/>
       <c r="D51" s="85"/>
-      <c r="F51" s="124"/>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="84" t="s">
-        <v>236</v>
-      </c>
-      <c r="B52" s="85"/>
-      <c r="C52" s="85"/>
-      <c r="D52" s="85"/>
-      <c r="F52" s="125"/>
-    </row>
-    <row r="53" spans="1:6" ht="15.75"/>
-    <row r="54" spans="1:6" ht="23.25">
-      <c r="A54" s="117" t="s">
-        <v>237</v>
-      </c>
-      <c r="B54" s="118"/>
-      <c r="C54" s="118"/>
-      <c r="D54" s="119"/>
-      <c r="F54" s="81" t="s">
-        <v>238</v>
+      <c r="F51" s="122"/>
+    </row>
+    <row r="52" spans="1:6" ht="15.75"/>
+    <row r="53" spans="1:6" ht="23.25">
+      <c r="A53" s="117" t="s">
+        <v>263</v>
+      </c>
+      <c r="B53" s="118"/>
+      <c r="C53" s="118"/>
+      <c r="D53" s="119"/>
+      <c r="F53" s="81" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="18.75">
+      <c r="A54" s="123" t="s">
+        <v>265</v>
+      </c>
+      <c r="B54" s="124"/>
+      <c r="C54" s="124" t="s">
+        <v>266</v>
+      </c>
+      <c r="D54" s="125"/>
+      <c r="F54" s="120" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="18.75">
-      <c r="A55" s="120" t="s">
-        <v>239</v>
-      </c>
-      <c r="B55" s="121"/>
-      <c r="C55" s="121" t="s">
-        <v>240</v>
-      </c>
-      <c r="D55" s="122"/>
-      <c r="F55" s="123" t="s">
-        <v>241</v>
-      </c>
+      <c r="A55" s="123" t="s">
+        <v>152</v>
+      </c>
+      <c r="B55" s="124"/>
+      <c r="C55" s="124" t="s">
+        <v>268</v>
+      </c>
+      <c r="D55" s="125"/>
+      <c r="F55" s="121"/>
     </row>
     <row r="56" spans="1:6" ht="18.75">
-      <c r="A56" s="120" t="s">
-        <v>152</v>
-      </c>
-      <c r="B56" s="121"/>
-      <c r="C56" s="121" t="s">
-        <v>242</v>
-      </c>
-      <c r="D56" s="122"/>
-      <c r="F56" s="124"/>
+      <c r="A56" s="123" t="s">
+        <v>58</v>
+      </c>
+      <c r="B56" s="124"/>
+      <c r="C56" s="124" t="s">
+        <v>269</v>
+      </c>
+      <c r="D56" s="125"/>
+      <c r="F56" s="121"/>
     </row>
     <row r="57" spans="1:6" ht="18.75">
-      <c r="A57" s="120" t="s">
-        <v>58</v>
-      </c>
-      <c r="B57" s="121"/>
-      <c r="C57" s="121" t="s">
-        <v>243</v>
-      </c>
-      <c r="D57" s="122"/>
-      <c r="F57" s="124"/>
-    </row>
-    <row r="58" spans="1:6" ht="18.75">
-      <c r="A58" s="120" t="s">
-        <v>244</v>
-      </c>
-      <c r="B58" s="121"/>
-      <c r="C58" s="121" t="s">
-        <v>245</v>
-      </c>
-      <c r="D58" s="122"/>
-      <c r="F58" s="124"/>
-    </row>
-    <row r="59" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A59" s="82" t="s">
-        <v>165</v>
-      </c>
-      <c r="B59" s="82" t="s">
+      <c r="A57" s="123" t="s">
+        <v>270</v>
+      </c>
+      <c r="B57" s="124"/>
+      <c r="C57" s="124" t="s">
+        <v>271</v>
+      </c>
+      <c r="D57" s="125"/>
+      <c r="F57" s="121"/>
+    </row>
+    <row r="58" spans="1:6" ht="15.75">
+      <c r="A58" s="82" t="s">
+        <v>313</v>
+      </c>
+      <c r="B58" s="82" t="s">
         <v>97</v>
       </c>
-      <c r="C59" s="82" t="s">
-        <v>166</v>
-      </c>
-      <c r="D59" s="83" t="s">
+      <c r="C58" s="82" t="s">
+        <v>314</v>
+      </c>
+      <c r="D58" s="83" t="s">
         <v>97</v>
       </c>
-      <c r="F59" s="124"/>
-    </row>
-    <row r="60" spans="1:6" ht="48.75">
+      <c r="F58" s="121"/>
+    </row>
+    <row r="59" spans="1:6" ht="48.75">
+      <c r="A59" s="84" t="s">
+        <v>111</v>
+      </c>
+      <c r="B59" s="85" t="s">
+        <v>272</v>
+      </c>
+      <c r="C59" s="85"/>
+      <c r="D59" s="85"/>
+      <c r="F59" s="121"/>
+    </row>
+    <row r="60" spans="1:6" ht="16.5">
       <c r="A60" s="84" t="s">
-        <v>111</v>
-      </c>
-      <c r="B60" s="85" t="s">
-        <v>246</v>
+        <v>103</v>
+      </c>
+      <c r="B60" s="86" t="s">
+        <v>273</v>
       </c>
       <c r="C60" s="85"/>
       <c r="D60" s="85"/>
-      <c r="F60" s="124"/>
-    </row>
-    <row r="61" spans="1:6">
+      <c r="F60" s="121"/>
+    </row>
+    <row r="61" spans="1:6" ht="16.5">
       <c r="A61" s="84" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="B61" s="86" t="s">
-        <v>247</v>
+        <v>180</v>
       </c>
       <c r="C61" s="85"/>
       <c r="D61" s="85"/>
-      <c r="F61" s="124"/>
-    </row>
-    <row r="62" spans="1:6">
+      <c r="F61" s="121"/>
+    </row>
+    <row r="62" spans="1:6" ht="16.5">
       <c r="A62" s="84" t="s">
-        <v>119</v>
-      </c>
-      <c r="B62" s="86" t="s">
-        <v>169</v>
-      </c>
-      <c r="C62" s="85"/>
-      <c r="D62" s="85"/>
-      <c r="F62" s="124"/>
-    </row>
-    <row r="63" spans="1:6">
+        <v>129</v>
+      </c>
+      <c r="B62" s="85"/>
+      <c r="C62" s="85" t="s">
+        <v>315</v>
+      </c>
+      <c r="D62" s="85" t="s">
+        <v>182</v>
+      </c>
+      <c r="F62" s="121"/>
+    </row>
+    <row r="63" spans="1:6" ht="32.25">
       <c r="A63" s="84" t="s">
-        <v>129</v>
-      </c>
-      <c r="B63" s="85"/>
+        <v>130</v>
+      </c>
+      <c r="B63" s="85" t="s">
+        <v>183</v>
+      </c>
       <c r="C63" s="85" t="s">
-        <v>170</v>
+        <v>316</v>
       </c>
       <c r="D63" s="85" t="s">
-        <v>171</v>
-      </c>
-      <c r="F63" s="124"/>
-    </row>
-    <row r="64" spans="1:6" ht="32.25">
+        <v>185</v>
+      </c>
+      <c r="F63" s="121"/>
+    </row>
+    <row r="64" spans="1:6" ht="16.5">
       <c r="A64" s="84" t="s">
-        <v>130</v>
+        <v>186</v>
       </c>
       <c r="B64" s="85" t="s">
-        <v>172</v>
-      </c>
-      <c r="C64" s="85" t="s">
-        <v>173</v>
-      </c>
-      <c r="D64" s="85" t="s">
-        <v>174</v>
-      </c>
-      <c r="F64" s="124"/>
-    </row>
-    <row r="65" spans="1:6">
+        <v>274</v>
+      </c>
+      <c r="C64" s="85"/>
+      <c r="D64" s="85"/>
+      <c r="F64" s="121"/>
+    </row>
+    <row r="65" spans="1:6" ht="32.25">
       <c r="A65" s="84" t="s">
-        <v>175</v>
-      </c>
-      <c r="B65" s="85" t="s">
-        <v>248</v>
-      </c>
-      <c r="C65" s="85"/>
-      <c r="D65" s="85"/>
-      <c r="F65" s="124"/>
-    </row>
-    <row r="66" spans="1:6" ht="32.25">
+        <v>135</v>
+      </c>
+      <c r="B65" s="85"/>
+      <c r="C65" s="85" t="s">
+        <v>317</v>
+      </c>
+      <c r="D65" s="85" t="s">
+        <v>275</v>
+      </c>
+      <c r="F65" s="121"/>
+    </row>
+    <row r="66" spans="1:6" ht="16.5">
       <c r="A66" s="84" t="s">
-        <v>135</v>
-      </c>
-      <c r="B66" s="85"/>
-      <c r="C66" s="85" t="s">
-        <v>177</v>
-      </c>
-      <c r="D66" s="85" t="s">
-        <v>249</v>
-      </c>
-      <c r="F66" s="124"/>
-    </row>
-    <row r="67" spans="1:6">
+        <v>132</v>
+      </c>
+      <c r="B66" s="85" t="s">
+        <v>190</v>
+      </c>
+      <c r="C66" s="85"/>
+      <c r="D66" s="85"/>
+      <c r="F66" s="121"/>
+    </row>
+    <row r="67" spans="1:6" ht="16.5">
       <c r="A67" s="84" t="s">
-        <v>132</v>
-      </c>
-      <c r="B67" s="85" t="s">
-        <v>179</v>
-      </c>
-      <c r="C67" s="85"/>
+        <v>276</v>
+      </c>
+      <c r="B67" s="85"/>
+      <c r="C67" s="85" t="s">
+        <v>318</v>
+      </c>
       <c r="D67" s="85"/>
-      <c r="F67" s="124"/>
-    </row>
-    <row r="68" spans="1:6">
+      <c r="F67" s="121"/>
+    </row>
+    <row r="68" spans="1:6" ht="16.5">
       <c r="A68" s="84" t="s">
-        <v>250</v>
+        <v>278</v>
       </c>
       <c r="B68" s="85"/>
       <c r="C68" s="85" t="s">
-        <v>251</v>
-      </c>
-      <c r="D68" s="85"/>
-      <c r="F68" s="124"/>
-    </row>
-    <row r="69" spans="1:6">
+        <v>319</v>
+      </c>
+      <c r="D68" s="85" t="s">
+        <v>280</v>
+      </c>
+      <c r="F68" s="121"/>
+    </row>
+    <row r="69" spans="1:6" ht="64.5">
       <c r="A69" s="84" t="s">
-        <v>252</v>
-      </c>
-      <c r="B69" s="85"/>
-      <c r="C69" s="85" t="s">
-        <v>253</v>
-      </c>
-      <c r="D69" s="85" t="s">
-        <v>254</v>
-      </c>
-      <c r="F69" s="124"/>
-    </row>
-    <row r="70" spans="1:6" ht="45.75" customHeight="1">
+        <v>281</v>
+      </c>
+      <c r="B69" s="85" t="s">
+        <v>178</v>
+      </c>
+      <c r="C69" s="85"/>
+      <c r="D69" s="85"/>
+      <c r="F69" s="121"/>
+    </row>
+    <row r="70" spans="1:6" ht="16.5">
       <c r="A70" s="84" t="s">
-        <v>255</v>
-      </c>
-      <c r="B70" s="85" t="s">
-        <v>167</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="B70" s="85"/>
       <c r="C70" s="85"/>
       <c r="D70" s="85"/>
-      <c r="F70" s="124"/>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71" s="84" t="s">
-        <v>236</v>
-      </c>
-      <c r="B71" s="85"/>
-      <c r="C71" s="85"/>
-      <c r="D71" s="85"/>
-      <c r="F71" s="125"/>
-    </row>
+      <c r="F70" s="122"/>
+    </row>
+    <row r="71" spans="1:6" ht="15.75"/>
     <row r="72" spans="1:6" ht="15.75"/>
     <row r="73" spans="1:6" ht="15.75"/>
     <row r="74" spans="1:6" ht="15.75"/>
@@ -4832,29 +6364,27 @@
     <row r="97" ht="15.75"/>
     <row r="98" ht="15.75"/>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F2:F52"/>
-    <mergeCell ref="F55:F71"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C58:D58"/>
+  <mergeCells count="20">
     <mergeCell ref="A57:B57"/>
     <mergeCell ref="C57:D57"/>
-    <mergeCell ref="A54:D54"/>
+    <mergeCell ref="A53:D53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="F54:F70"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:F51"/>
     <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
     <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
     <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
